--- a/data/output/best_policy_2.xlsx
+++ b/data/output/best_policy_2.xlsx
@@ -395,19 +395,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -415,19 +415,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -435,19 +435,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -455,19 +455,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,19 +515,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -535,19 +535,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -555,19 +555,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -575,19 +575,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -595,19 +595,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -615,19 +615,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -635,19 +635,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -655,19 +655,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -675,19 +675,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -695,19 +695,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -715,19 +715,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -735,19 +735,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -755,19 +755,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -775,19 +775,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -795,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -815,19 +815,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -835,19 +835,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -855,19 +855,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -875,19 +875,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -895,19 +895,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -915,19 +915,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -935,19 +935,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -955,19 +955,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -975,19 +975,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -995,19 +995,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1015,19 +1015,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1035,19 +1035,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1055,19 +1055,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1075,19 +1075,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1095,19 +1095,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1115,19 +1115,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1135,19 +1135,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1155,19 +1155,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1175,19 +1175,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1195,19 +1195,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1215,19 +1215,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1235,19 +1235,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1255,19 +1255,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1275,19 +1275,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1295,19 +1295,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1315,19 +1315,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1335,19 +1335,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1355,19 +1355,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1375,19 +1375,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1395,19 +1395,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1415,19 +1415,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1435,19 +1435,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1455,19 +1455,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1475,19 +1475,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1495,19 +1495,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1515,19 +1515,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1535,19 +1535,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1555,19 +1555,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1575,19 +1575,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1595,19 +1595,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1615,19 +1615,19 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1635,19 +1635,19 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1655,19 +1655,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1675,19 +1675,19 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1695,19 +1695,19 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1715,19 +1715,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1735,19 +1735,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1755,19 +1755,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1775,19 +1775,19 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1795,19 +1795,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1815,19 +1815,19 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1835,19 +1835,19 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1855,19 +1855,19 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1875,19 +1875,19 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1895,19 +1895,19 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1915,19 +1915,19 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1935,19 +1935,19 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1955,19 +1955,19 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1975,19 +1975,19 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1995,19 +1995,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2015,19 +2015,19 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2035,19 +2035,19 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2055,19 +2055,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2075,19 +2075,19 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2095,19 +2095,19 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2115,19 +2115,19 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2135,19 +2135,19 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2155,19 +2155,19 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2195,19 +2195,19 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2215,19 +2215,19 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2235,19 +2235,19 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2255,19 +2255,19 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2275,19 +2275,19 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2295,19 +2295,19 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2315,19 +2315,19 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2335,19 +2335,19 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2355,19 +2355,19 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2375,19 +2375,19 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2395,19 +2395,19 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2415,19 +2415,19 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2435,19 +2435,19 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2455,19 +2455,19 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2475,19 +2475,19 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2495,19 +2495,19 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2515,19 +2515,19 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2535,19 +2535,19 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2555,19 +2555,19 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2575,19 +2575,19 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2595,19 +2595,19 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2615,19 +2615,19 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2635,19 +2635,19 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2655,19 +2655,19 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2675,19 +2675,19 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2695,19 +2695,19 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2715,19 +2715,19 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2735,19 +2735,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2755,19 +2755,19 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2775,19 +2775,19 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2795,19 +2795,19 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2815,19 +2815,19 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2835,19 +2835,19 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2855,19 +2855,19 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2875,19 +2875,19 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2895,19 +2895,19 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2915,19 +2915,19 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2935,19 +2935,19 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2955,19 +2955,19 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2975,19 +2975,19 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2995,19 +2995,19 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3015,19 +3015,19 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3035,19 +3035,19 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3055,19 +3055,19 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3075,19 +3075,19 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3095,19 +3095,19 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3115,19 +3115,19 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3135,19 +3135,19 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3155,19 +3155,19 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3175,19 +3175,19 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3195,19 +3195,19 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3215,19 +3215,19 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3235,19 +3235,19 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3255,19 +3255,19 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3275,19 +3275,19 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3295,19 +3295,19 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3315,19 +3315,19 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3335,19 +3335,19 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3355,19 +3355,19 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3375,19 +3375,19 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3395,19 +3395,19 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3415,19 +3415,19 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3435,19 +3435,19 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3455,19 +3455,19 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3475,19 +3475,19 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3495,19 +3495,19 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3515,19 +3515,19 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3535,19 +3535,19 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3555,19 +3555,19 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3575,19 +3575,19 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3595,19 +3595,19 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3674,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2591.999999999961</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>2592.000000000152</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>2592.000000000005</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>2592.00000000004</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>2592.000000000128</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3697,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5183.999999999922</v>
+        <v>4000</v>
       </c>
       <c r="D4">
-        <v>5184.000000000304</v>
+        <v>4000</v>
       </c>
       <c r="E4">
-        <v>5184.00000000001</v>
+        <v>4000</v>
       </c>
       <c r="F4">
-        <v>5184.000000000081</v>
+        <v>4000</v>
       </c>
       <c r="G4">
-        <v>5184.000000000256</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3720,19 +3720,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7775.999999999886</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="D5">
-        <v>7776.000000000468</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="E5">
-        <v>7776.000000000015</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="F5">
-        <v>7776.000000000126</v>
+        <v>5999.999999999999</v>
       </c>
       <c r="G5">
-        <v>7776.000000000391</v>
+        <v>5999.999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3743,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10367.99999999984</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="D6">
-        <v>10368.00000000061</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="E6">
-        <v>10368.00000000002</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="F6">
-        <v>10368.00000000016</v>
+        <v>7999.999999999999</v>
       </c>
       <c r="G6">
-        <v>10368.00000000051</v>
+        <v>7999.999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3766,19 +3766,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12959.99999999981</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="D7">
-        <v>12960.00000000077</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="E7">
-        <v>12960.00000000002</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="F7">
-        <v>12960.00000000021</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="G7">
-        <v>12960.00000000065</v>
+        <v>9999.999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3789,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>15551.99999999977</v>
+        <v>12000</v>
       </c>
       <c r="D8">
-        <v>15552.00000000094</v>
+        <v>12000</v>
       </c>
       <c r="E8">
-        <v>15552.00000000003</v>
+        <v>12000</v>
       </c>
       <c r="F8">
-        <v>15552.00000000025</v>
+        <v>12000</v>
       </c>
       <c r="G8">
-        <v>15552.00000000078</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3812,19 +3812,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>18143.99999999972</v>
+        <v>14000</v>
       </c>
       <c r="D9">
-        <v>18144.00000000108</v>
+        <v>14000</v>
       </c>
       <c r="E9">
-        <v>18144.00000000002</v>
+        <v>14000</v>
       </c>
       <c r="F9">
-        <v>18144.00000000029</v>
+        <v>14000</v>
       </c>
       <c r="G9">
-        <v>18144.00000000088</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3835,19 +3835,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>20735.99999999969</v>
+        <v>16000</v>
       </c>
       <c r="D10">
-        <v>20736.00000000122</v>
+        <v>16000</v>
       </c>
       <c r="E10">
-        <v>20736.00000000004</v>
+        <v>16000</v>
       </c>
       <c r="F10">
-        <v>20736.00000000032</v>
+        <v>16000</v>
       </c>
       <c r="G10">
-        <v>20736.00000000103</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3858,19 +3858,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>23327.99999999966</v>
+        <v>18000</v>
       </c>
       <c r="D11">
-        <v>23328.00000000139</v>
+        <v>17999.99999999999</v>
       </c>
       <c r="E11">
-        <v>23328.00000000004</v>
+        <v>18000</v>
       </c>
       <c r="F11">
-        <v>23328.00000000039</v>
+        <v>18000</v>
       </c>
       <c r="G11">
-        <v>23328.00000000115</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3881,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>25919.99999999962</v>
+        <v>20000</v>
       </c>
       <c r="D12">
-        <v>25920.00000000154</v>
+        <v>20000</v>
       </c>
       <c r="E12">
-        <v>25920.00000000004</v>
+        <v>20000</v>
       </c>
       <c r="F12">
-        <v>25920.00000000042</v>
+        <v>20000</v>
       </c>
       <c r="G12">
-        <v>25920.00000000131</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>28511.99999999958</v>
+        <v>22000</v>
       </c>
       <c r="D13">
-        <v>28512.00000000171</v>
+        <v>22000</v>
       </c>
       <c r="E13">
-        <v>28512.00000000005</v>
+        <v>22000</v>
       </c>
       <c r="F13">
-        <v>28512.00000000045</v>
+        <v>22000</v>
       </c>
       <c r="G13">
-        <v>28512.00000000142</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3927,19 +3927,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>31103.99999999955</v>
+        <v>24000</v>
       </c>
       <c r="D14">
-        <v>31104.00000000187</v>
+        <v>24000</v>
       </c>
       <c r="E14">
-        <v>31104.00000000006</v>
+        <v>24000</v>
       </c>
       <c r="F14">
-        <v>31104.0000000005</v>
+        <v>24000</v>
       </c>
       <c r="G14">
-        <v>31104.00000000156</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3950,19 +3950,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>33695.99999999951</v>
+        <v>26000</v>
       </c>
       <c r="D15">
-        <v>33696.00000000202</v>
+        <v>26000</v>
       </c>
       <c r="E15">
-        <v>33696.00000000007</v>
+        <v>25999.99999999999</v>
       </c>
       <c r="F15">
-        <v>33696.00000000056</v>
+        <v>26000</v>
       </c>
       <c r="G15">
-        <v>33696.0000000017</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3973,19 +3973,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>36287.99999999945</v>
+        <v>28000</v>
       </c>
       <c r="D16">
-        <v>36288.00000000215</v>
+        <v>27999.99999999999</v>
       </c>
       <c r="E16">
-        <v>36288.00000000004</v>
+        <v>28000</v>
       </c>
       <c r="F16">
-        <v>36288.00000000057</v>
+        <v>28000</v>
       </c>
       <c r="G16">
-        <v>36288.00000000177</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>38879.99999999944</v>
+        <v>30000</v>
       </c>
       <c r="D17">
-        <v>38880.0000000023</v>
+        <v>29999.99999999999</v>
       </c>
       <c r="E17">
-        <v>38880.00000000007</v>
+        <v>30000</v>
       </c>
       <c r="F17">
-        <v>38880.00000000063</v>
+        <v>30000</v>
       </c>
       <c r="G17">
-        <v>38880.00000000192</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>41471.99999999937</v>
+        <v>32000</v>
       </c>
       <c r="D18">
-        <v>41472.00000000243</v>
+        <v>32000</v>
       </c>
       <c r="E18">
-        <v>41472.00000000008</v>
+        <v>32000</v>
       </c>
       <c r="F18">
-        <v>41472.00000000065</v>
+        <v>32000</v>
       </c>
       <c r="G18">
-        <v>41472.00000000205</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4042,19 +4042,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>44063.99999999936</v>
+        <v>33999.99999999999</v>
       </c>
       <c r="D19">
-        <v>44064.00000000264</v>
+        <v>33999.99999999999</v>
       </c>
       <c r="E19">
-        <v>44064.00000000009</v>
+        <v>33999.99999999999</v>
       </c>
       <c r="F19">
-        <v>44064.0000000007</v>
+        <v>33999.99999999999</v>
       </c>
       <c r="G19">
-        <v>44064.00000000222</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>46655.99999999932</v>
+        <v>35999.99999999999</v>
       </c>
       <c r="D20">
-        <v>46656.00000000279</v>
+        <v>35999.99999999999</v>
       </c>
       <c r="E20">
-        <v>46656.00000000009</v>
+        <v>35999.99999999999</v>
       </c>
       <c r="F20">
-        <v>46656.00000000079</v>
+        <v>35999.99999999999</v>
       </c>
       <c r="G20">
-        <v>46656.0000000023</v>
+        <v>35999.99999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4088,19 +4088,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>49247.99999999925</v>
+        <v>37999.99999999999</v>
       </c>
       <c r="D21">
-        <v>49248.00000000294</v>
+        <v>37999.99999999999</v>
       </c>
       <c r="E21">
-        <v>49248.00000000009</v>
+        <v>37999.99999999999</v>
       </c>
       <c r="F21">
-        <v>49248.0000000008</v>
+        <v>37999.99999999999</v>
       </c>
       <c r="G21">
-        <v>49248.00000000244</v>
+        <v>37999.99999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4111,19 +4111,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>51839.99999999924</v>
+        <v>39999.99999999999</v>
       </c>
       <c r="D22">
-        <v>51840.00000000307</v>
+        <v>39999.99999999999</v>
       </c>
       <c r="E22">
-        <v>51840.00000000008</v>
+        <v>39999.99999999999</v>
       </c>
       <c r="F22">
-        <v>51840.00000000084</v>
+        <v>39999.99999999999</v>
       </c>
       <c r="G22">
-        <v>51840.00000000262</v>
+        <v>39999.99999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4134,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>54431.99999999919</v>
+        <v>41999.99999999999</v>
       </c>
       <c r="D23">
-        <v>54432.00000000324</v>
+        <v>41999.99999999999</v>
       </c>
       <c r="E23">
-        <v>54432.00000000009</v>
+        <v>41999.99999999999</v>
       </c>
       <c r="F23">
-        <v>54432.00000000089</v>
+        <v>41999.99999999999</v>
       </c>
       <c r="G23">
-        <v>54432.00000000272</v>
+        <v>41999.99999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4157,19 +4157,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>57023.99999999916</v>
+        <v>43999.99999999999</v>
       </c>
       <c r="D24">
-        <v>57024.00000000341</v>
+        <v>43999.99999999999</v>
       </c>
       <c r="E24">
-        <v>57024.00000000009</v>
+        <v>43999.99999999999</v>
       </c>
       <c r="F24">
-        <v>57024.0000000009</v>
+        <v>43999.99999999999</v>
       </c>
       <c r="G24">
-        <v>57024.00000000284</v>
+        <v>43999.99999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>59615.99999999915</v>
+        <v>45999.99999999999</v>
       </c>
       <c r="D25">
-        <v>59616.00000000357</v>
+        <v>45999.99999999999</v>
       </c>
       <c r="E25">
-        <v>59616.00000000011</v>
+        <v>45999.99999999999</v>
       </c>
       <c r="F25">
-        <v>59616.00000000095</v>
+        <v>45999.99999999999</v>
       </c>
       <c r="G25">
-        <v>59616.00000000298</v>
+        <v>45999.99999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4203,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>62207.99999999909</v>
+        <v>47999.99999999999</v>
       </c>
       <c r="D26">
-        <v>62208.00000000375</v>
+        <v>47999.99999999999</v>
       </c>
       <c r="E26">
-        <v>62208.00000000012</v>
+        <v>47999.99999999999</v>
       </c>
       <c r="F26">
-        <v>62208.000000001</v>
+        <v>47999.99999999999</v>
       </c>
       <c r="G26">
-        <v>62208.00000000313</v>
+        <v>47999.99999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4226,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>64799.99999999906</v>
+        <v>49999.99999999999</v>
       </c>
       <c r="D27">
-        <v>64800.00000000388</v>
+        <v>49999.99999999999</v>
       </c>
       <c r="E27">
-        <v>64800.00000000013</v>
+        <v>49999.99999999999</v>
       </c>
       <c r="F27">
-        <v>64800.00000000106</v>
+        <v>49999.99999999999</v>
       </c>
       <c r="G27">
-        <v>64800.00000000324</v>
+        <v>49999.99999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4249,19 +4249,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>67391.99999999901</v>
+        <v>51999.99999999999</v>
       </c>
       <c r="D28">
-        <v>67392.00000000405</v>
+        <v>51999.99999999999</v>
       </c>
       <c r="E28">
-        <v>67392.00000000013</v>
+        <v>51999.99999999999</v>
       </c>
       <c r="F28">
-        <v>67392.00000000112</v>
+        <v>51999.99999999999</v>
       </c>
       <c r="G28">
-        <v>67392.00000000339</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4272,19 +4272,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>69983.99999999895</v>
+        <v>53999.99999999999</v>
       </c>
       <c r="D29">
-        <v>69984.00000000415</v>
+        <v>53999.99999999999</v>
       </c>
       <c r="E29">
-        <v>69984.0000000001</v>
+        <v>53999.99999999999</v>
       </c>
       <c r="F29">
-        <v>69984.00000000108</v>
+        <v>53999.99999999999</v>
       </c>
       <c r="G29">
-        <v>69984.00000000346</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4295,19 +4295,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>72575.99999999889</v>
+        <v>55999.99999999999</v>
       </c>
       <c r="D30">
-        <v>72576.00000000431</v>
+        <v>55999.99999999999</v>
       </c>
       <c r="E30">
-        <v>72576.00000000009</v>
+        <v>55999.99999999999</v>
       </c>
       <c r="F30">
-        <v>72576.00000000115</v>
+        <v>55999.99999999999</v>
       </c>
       <c r="G30">
-        <v>72576.00000000354</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4318,19 +4318,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>75167.99999999888</v>
+        <v>57999.99999999999</v>
       </c>
       <c r="D31">
-        <v>75168.00000000445</v>
+        <v>57999.99999999999</v>
       </c>
       <c r="E31">
-        <v>75168.00000000016</v>
+        <v>57999.99999999999</v>
       </c>
       <c r="F31">
-        <v>75168.00000000125</v>
+        <v>57999.99999999999</v>
       </c>
       <c r="G31">
-        <v>75168.00000000378</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4341,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>77759.99999999888</v>
+        <v>59999.99999999999</v>
       </c>
       <c r="D32">
-        <v>77760.0000000046</v>
+        <v>59999.99999999999</v>
       </c>
       <c r="E32">
-        <v>77760.00000000015</v>
+        <v>59999.99999999999</v>
       </c>
       <c r="F32">
-        <v>77760.00000000127</v>
+        <v>59999.99999999999</v>
       </c>
       <c r="G32">
-        <v>77760.00000000384</v>
+        <v>59999.99999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4364,19 +4364,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>80351.99999999881</v>
+        <v>61999.99999999999</v>
       </c>
       <c r="D33">
-        <v>80352.00000000476</v>
+        <v>61999.99999999999</v>
       </c>
       <c r="E33">
-        <v>80352.00000000017</v>
+        <v>61999.99999999999</v>
       </c>
       <c r="F33">
-        <v>80352.00000000131</v>
+        <v>61999.99999999999</v>
       </c>
       <c r="G33">
-        <v>80352.00000000397</v>
+        <v>61999.99999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4387,19 +4387,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>82943.99999999875</v>
+        <v>63999.99999999999</v>
       </c>
       <c r="D34">
-        <v>82944.00000000486</v>
+        <v>63999.99999999999</v>
       </c>
       <c r="E34">
-        <v>82944.00000000016</v>
+        <v>63999.99999999999</v>
       </c>
       <c r="F34">
-        <v>82944.0000000013</v>
+        <v>63999.99999999999</v>
       </c>
       <c r="G34">
-        <v>82944.0000000041</v>
+        <v>63999.99999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4410,19 +4410,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>85535.9999999987</v>
+        <v>65999.99999999999</v>
       </c>
       <c r="D35">
-        <v>85536.00000000512</v>
+        <v>65999.99999999999</v>
       </c>
       <c r="E35">
-        <v>85536.00000000015</v>
+        <v>65999.99999999999</v>
       </c>
       <c r="F35">
-        <v>85536.00000000137</v>
+        <v>65999.99999999999</v>
       </c>
       <c r="G35">
-        <v>85536.00000000422</v>
+        <v>65999.99999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4433,19 +4433,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>88127.99999999872</v>
+        <v>67999.99999999999</v>
       </c>
       <c r="D36">
-        <v>88128.00000000528</v>
+        <v>67999.99999999997</v>
       </c>
       <c r="E36">
-        <v>88128.00000000019</v>
+        <v>67999.99999999999</v>
       </c>
       <c r="F36">
-        <v>88128.0000000014</v>
+        <v>67999.99999999999</v>
       </c>
       <c r="G36">
-        <v>88128.00000000444</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4456,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>90719.99999999865</v>
+        <v>69999.99999999999</v>
       </c>
       <c r="D37">
-        <v>90720.0000000054</v>
+        <v>69999.99999999999</v>
       </c>
       <c r="E37">
-        <v>90720.0000000001</v>
+        <v>69999.99999999999</v>
       </c>
       <c r="F37">
-        <v>90720.00000000148</v>
+        <v>70000</v>
       </c>
       <c r="G37">
-        <v>90720.00000000454</v>
+        <v>69999.99999999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4479,19 +4479,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>93311.99999999865</v>
+        <v>71999.99999999999</v>
       </c>
       <c r="D38">
-        <v>93312.00000000557</v>
+        <v>71999.99999999997</v>
       </c>
       <c r="E38">
-        <v>93312.00000000017</v>
+        <v>71999.99999999999</v>
       </c>
       <c r="F38">
-        <v>93312.00000000157</v>
+        <v>71999.99999999999</v>
       </c>
       <c r="G38">
-        <v>93312.0000000046</v>
+        <v>71999.99999999999</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4502,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>95903.99999999854</v>
+        <v>73999.99999999999</v>
       </c>
       <c r="D39">
-        <v>95904.0000000057</v>
+        <v>73999.99999999999</v>
       </c>
       <c r="E39">
-        <v>95904.00000000013</v>
+        <v>73999.99999999997</v>
       </c>
       <c r="F39">
-        <v>95904.00000000151</v>
+        <v>73999.99999999999</v>
       </c>
       <c r="G39">
-        <v>95904.00000000482</v>
+        <v>73999.99999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4525,19 +4525,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>98495.9999999985</v>
+        <v>75999.99999999999</v>
       </c>
       <c r="D40">
-        <v>98496.00000000588</v>
+        <v>75999.99999999999</v>
       </c>
       <c r="E40">
-        <v>98496.00000000017</v>
+        <v>75999.99999999997</v>
       </c>
       <c r="F40">
-        <v>98496.0000000016</v>
+        <v>75999.99999999999</v>
       </c>
       <c r="G40">
-        <v>98496.00000000489</v>
+        <v>75999.99999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4548,19 +4548,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>101087.9999999985</v>
+        <v>77999.99999999999</v>
       </c>
       <c r="D41">
-        <v>101088.000000006</v>
+        <v>77999.99999999999</v>
       </c>
       <c r="E41">
-        <v>101088.0000000002</v>
+        <v>77999.99999999999</v>
       </c>
       <c r="F41">
-        <v>101088.0000000016</v>
+        <v>77999.99999999999</v>
       </c>
       <c r="G41">
-        <v>101088.0000000051</v>
+        <v>77999.99999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4571,19 +4571,19 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>103679.9999999985</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="D42">
-        <v>103680.0000000061</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="E42">
-        <v>103680.0000000002</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="F42">
-        <v>103680.0000000017</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="G42">
-        <v>103680.0000000052</v>
+        <v>79999.99999999999</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4594,19 +4594,19 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>106271.9999999985</v>
+        <v>81999.99999999999</v>
       </c>
       <c r="D43">
-        <v>106272.0000000064</v>
+        <v>81999.99999999999</v>
       </c>
       <c r="E43">
-        <v>106272.0000000002</v>
+        <v>81999.99999999999</v>
       </c>
       <c r="F43">
-        <v>106272.0000000017</v>
+        <v>81999.99999999999</v>
       </c>
       <c r="G43">
-        <v>106272.0000000053</v>
+        <v>81999.99999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4617,19 +4617,19 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>108863.9999999984</v>
+        <v>83999.99999999999</v>
       </c>
       <c r="D44">
-        <v>108864.0000000064</v>
+        <v>83999.99999999999</v>
       </c>
       <c r="E44">
-        <v>108864.0000000002</v>
+        <v>83999.99999999999</v>
       </c>
       <c r="F44">
-        <v>108864.0000000018</v>
+        <v>83999.99999999999</v>
       </c>
       <c r="G44">
-        <v>108864.0000000054</v>
+        <v>83999.99999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4640,19 +4640,19 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>111455.9999999984</v>
+        <v>85999.99999999999</v>
       </c>
       <c r="D45">
-        <v>111456.0000000065</v>
+        <v>85999.99999999999</v>
       </c>
       <c r="E45">
-        <v>111456.0000000002</v>
+        <v>85999.99999999999</v>
       </c>
       <c r="F45">
-        <v>111456.0000000018</v>
+        <v>85999.99999999999</v>
       </c>
       <c r="G45">
-        <v>111456.0000000056</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4663,19 +4663,19 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>114047.9999999983</v>
+        <v>87999.99999999999</v>
       </c>
       <c r="D46">
-        <v>114048.0000000067</v>
+        <v>87999.99999999999</v>
       </c>
       <c r="E46">
-        <v>114048.0000000002</v>
+        <v>87999.99999999999</v>
       </c>
       <c r="F46">
-        <v>114048.0000000018</v>
+        <v>87999.99999999999</v>
       </c>
       <c r="G46">
-        <v>114048.0000000057</v>
+        <v>87999.99999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4686,19 +4686,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>116639.9999999983</v>
+        <v>89999.99999999999</v>
       </c>
       <c r="D47">
-        <v>116640.0000000066</v>
+        <v>89999.99999999997</v>
       </c>
       <c r="E47">
-        <v>116640.0000000002</v>
+        <v>89999.99999999999</v>
       </c>
       <c r="F47">
-        <v>116640.0000000018</v>
+        <v>89999.99999999999</v>
       </c>
       <c r="G47">
-        <v>116640.0000000058</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4709,19 +4709,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>119231.9999999983</v>
+        <v>91999.99999999999</v>
       </c>
       <c r="D48">
-        <v>119232.0000000063</v>
+        <v>91999.99999999999</v>
       </c>
       <c r="E48">
-        <v>119232</v>
+        <v>91999.99999999999</v>
       </c>
       <c r="F48">
-        <v>119232.0000000018</v>
+        <v>91999.99999999999</v>
       </c>
       <c r="G48">
-        <v>119232.0000000059</v>
+        <v>91999.99999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4732,19 +4732,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>121823.9999999982</v>
+        <v>93999.99999999999</v>
       </c>
       <c r="D49">
-        <v>121824.0000000055</v>
+        <v>93999.99999999997</v>
       </c>
       <c r="E49">
-        <v>121823.9999999998</v>
+        <v>93999.99999999999</v>
       </c>
       <c r="F49">
-        <v>121824.0000000018</v>
+        <v>93999.99999999999</v>
       </c>
       <c r="G49">
-        <v>121824.000000006</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4755,19 +4755,19 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>124415.9999999982</v>
+        <v>95999.99999999999</v>
       </c>
       <c r="D50">
-        <v>124416.0000000036</v>
+        <v>95999.99999999999</v>
       </c>
       <c r="E50">
-        <v>124415.9999999992</v>
+        <v>95999.99999999999</v>
       </c>
       <c r="F50">
-        <v>124416.0000000016</v>
+        <v>95999.99999999999</v>
       </c>
       <c r="G50">
-        <v>124416.000000006</v>
+        <v>95999.99999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4778,19 +4778,19 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>127007.9999999981</v>
+        <v>97999.99999999999</v>
       </c>
       <c r="D51">
-        <v>127007.9999999991</v>
+        <v>97999.99999999997</v>
       </c>
       <c r="E51">
-        <v>127007.999999998</v>
+        <v>97999.99999999999</v>
       </c>
       <c r="F51">
-        <v>127008.000000001</v>
+        <v>97999.99999999999</v>
       </c>
       <c r="G51">
-        <v>127008.0000000057</v>
+        <v>97999.99999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4801,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>129599.9999999981</v>
+        <v>99999.99999999999</v>
       </c>
       <c r="D52">
-        <v>129599.99999999</v>
+        <v>99999.99999999999</v>
       </c>
       <c r="E52">
-        <v>129599.9999999956</v>
+        <v>99999.99999999999</v>
       </c>
       <c r="F52">
-        <v>129600</v>
+        <v>99999.99999999999</v>
       </c>
       <c r="G52">
-        <v>129600.0000000051</v>
+        <v>99999.99999999999</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4824,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>132191.9999999981</v>
+        <v>102000</v>
       </c>
       <c r="D53">
-        <v>132191.9999999711</v>
+        <v>102000</v>
       </c>
       <c r="E53">
-        <v>132191.9999999905</v>
+        <v>102000</v>
       </c>
       <c r="F53">
-        <v>132191.9999999977</v>
+        <v>102000</v>
       </c>
       <c r="G53">
-        <v>132192.0000000036</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4847,19 +4847,19 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>134783.999999998</v>
+        <v>104000</v>
       </c>
       <c r="D54">
-        <v>134783.9999999334</v>
+        <v>104000</v>
       </c>
       <c r="E54">
-        <v>134783.9999999797</v>
+        <v>104000</v>
       </c>
       <c r="F54">
-        <v>134783.9999999926</v>
+        <v>104000</v>
       </c>
       <c r="G54">
-        <v>134784.0000000006</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4870,19 +4870,19 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>137375.999999998</v>
+        <v>106000</v>
       </c>
       <c r="D55">
-        <v>137375.9999998594</v>
+        <v>106000</v>
       </c>
       <c r="E55">
-        <v>137375.9999999582</v>
+        <v>106000</v>
       </c>
       <c r="F55">
-        <v>137375.9999999823</v>
+        <v>106000</v>
       </c>
       <c r="G55">
-        <v>137375.9999999939</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4893,19 +4893,19 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>139967.9999999979</v>
+        <v>108000</v>
       </c>
       <c r="D56">
-        <v>139967.9999997171</v>
+        <v>108000</v>
       </c>
       <c r="E56">
-        <v>139967.9999999159</v>
+        <v>108000</v>
       </c>
       <c r="F56">
-        <v>139967.9999999619</v>
+        <v>108000</v>
       </c>
       <c r="G56">
-        <v>139967.9999999807</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>142559.9999999979</v>
+        <v>110000</v>
       </c>
       <c r="D57">
-        <v>142559.9999994489</v>
+        <v>110000</v>
       </c>
       <c r="E57">
-        <v>142559.9999998347</v>
+        <v>110000</v>
       </c>
       <c r="F57">
-        <v>142559.9999999221</v>
+        <v>110000</v>
       </c>
       <c r="G57">
-        <v>142559.9999999545</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4939,19 +4939,19 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>145151.9999999977</v>
+        <v>112000</v>
       </c>
       <c r="D58">
-        <v>145151.999998952</v>
+        <v>112000</v>
       </c>
       <c r="E58">
-        <v>145151.9999996801</v>
+        <v>112000</v>
       </c>
       <c r="F58">
-        <v>145151.9999998451</v>
+        <v>112000</v>
       </c>
       <c r="G58">
-        <v>145151.9999999033</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4962,19 +4962,19 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>147743.9999999976</v>
+        <v>114000</v>
       </c>
       <c r="D59">
-        <v>147743.9999980479</v>
+        <v>114000</v>
       </c>
       <c r="E59">
-        <v>147743.9999993925</v>
+        <v>114000</v>
       </c>
       <c r="F59">
-        <v>147743.9999997</v>
+        <v>114000</v>
       </c>
       <c r="G59">
-        <v>147743.9999998063</v>
+        <v>114000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4985,19 +4985,19 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>150335.9999999972</v>
+        <v>116000</v>
       </c>
       <c r="D60">
-        <v>150335.9999964311</v>
+        <v>116000</v>
       </c>
       <c r="E60">
-        <v>150335.9999988656</v>
+        <v>116000</v>
       </c>
       <c r="F60">
-        <v>150335.9999994305</v>
+        <v>116000</v>
       </c>
       <c r="G60">
-        <v>150335.9999996243</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5008,19 +5008,19 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>152927.9999999964</v>
+        <v>118000</v>
       </c>
       <c r="D61">
-        <v>152927.9999935886</v>
+        <v>118000</v>
       </c>
       <c r="E61">
-        <v>152927.9999979169</v>
+        <v>118000</v>
       </c>
       <c r="F61">
-        <v>152927.9999989384</v>
+        <v>118000</v>
       </c>
       <c r="G61">
-        <v>152927.9999992894</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5031,19 +5031,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>155519.9999999947</v>
+        <v>120000</v>
       </c>
       <c r="D62">
-        <v>155519.9999886732</v>
+        <v>120000</v>
       </c>
       <c r="E62">
-        <v>155519.9999962376</v>
+        <v>120000</v>
       </c>
       <c r="F62">
-        <v>155519.9999980553</v>
+        <v>120000</v>
       </c>
       <c r="G62">
-        <v>155519.9999986834</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5054,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>158111.9999999907</v>
+        <v>122000</v>
       </c>
       <c r="D63">
-        <v>158111.9999803116</v>
+        <v>122000</v>
       </c>
       <c r="E63">
-        <v>158111.9999933124</v>
+        <v>122000</v>
       </c>
       <c r="F63">
-        <v>158111.999996496</v>
+        <v>122000</v>
       </c>
       <c r="G63">
-        <v>158111.9999976052</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5077,19 +5077,19 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>160703.9999999823</v>
+        <v>124000</v>
       </c>
       <c r="D64">
-        <v>160703.9999663146</v>
+        <v>124000</v>
       </c>
       <c r="E64">
-        <v>160703.999988299</v>
+        <v>124000</v>
       </c>
       <c r="F64">
-        <v>160703.9999937871</v>
+        <v>124000</v>
       </c>
       <c r="G64">
-        <v>160703.9999957173</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5100,19 +5100,19 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>163295.999999964</v>
+        <v>126000</v>
       </c>
       <c r="D65">
-        <v>163295.9999432495</v>
+        <v>126000</v>
       </c>
       <c r="E65">
-        <v>163295.9999798406</v>
+        <v>126000</v>
       </c>
       <c r="F65">
-        <v>163295.9999891546</v>
+        <v>126000</v>
       </c>
       <c r="G65">
-        <v>163295.9999924639</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5123,19 +5123,19 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>165887.9999999249</v>
+        <v>128000</v>
       </c>
       <c r="D66">
-        <v>165887.9999058252</v>
+        <v>128000</v>
       </c>
       <c r="E66">
-        <v>165887.9999657908</v>
+        <v>128000</v>
       </c>
       <c r="F66">
-        <v>165887.9999813552</v>
+        <v>128000</v>
       </c>
       <c r="G66">
-        <v>165887.9999869434</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5146,19 +5146,19 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>168479.9999998433</v>
+        <v>130000</v>
       </c>
       <c r="D67">
-        <v>168479.9998460195</v>
+        <v>130000</v>
       </c>
       <c r="E67">
-        <v>168479.9999428061</v>
+        <v>130000</v>
       </c>
       <c r="F67">
-        <v>168479.9999684228</v>
+        <v>130000</v>
       </c>
       <c r="G67">
-        <v>168479.999977719</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5169,19 +5169,19 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>171071.9999996746</v>
+        <v>132000</v>
       </c>
       <c r="D68">
-        <v>171071.9997518639</v>
+        <v>132000</v>
       </c>
       <c r="E68">
-        <v>171071.999905764</v>
+        <v>132000</v>
       </c>
       <c r="F68">
-        <v>171071.999947299</v>
+        <v>132000</v>
       </c>
       <c r="G68">
-        <v>171071.9999625349</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5192,19 +5192,19 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>173663.999999332</v>
+        <v>134000</v>
       </c>
       <c r="D69">
-        <v>173663.9996057881</v>
+        <v>134000</v>
       </c>
       <c r="E69">
-        <v>173663.9998469408</v>
+        <v>134000</v>
       </c>
       <c r="F69">
-        <v>173663.9999133013</v>
+        <v>134000</v>
       </c>
       <c r="G69">
-        <v>173663.9999379086</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5215,19 +5215,19 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>176255.9999986449</v>
+        <v>136000</v>
       </c>
       <c r="D70">
-        <v>176255.9993824067</v>
+        <v>135999.9999999999</v>
       </c>
       <c r="E70">
-        <v>176255.999754872</v>
+        <v>136000</v>
       </c>
       <c r="F70">
-        <v>176255.9998593719</v>
+        <v>136000</v>
       </c>
       <c r="G70">
-        <v>176255.9998985443</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5238,19 +5238,19 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>178847.9999972884</v>
+        <v>138000</v>
       </c>
       <c r="D71">
-        <v>178847.9990456151</v>
+        <v>138000</v>
       </c>
       <c r="E71">
-        <v>178847.9996128048</v>
+        <v>138000</v>
       </c>
       <c r="F71">
-        <v>178847.9997750387</v>
+        <v>138000</v>
       </c>
       <c r="G71">
-        <v>178847.9998365146</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5261,19 +5261,19 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>181439.9999946479</v>
+        <v>140000</v>
       </c>
       <c r="D72">
-        <v>181439.9985448577</v>
+        <v>140000</v>
       </c>
       <c r="E72">
-        <v>181439.9993966355</v>
+        <v>140000</v>
       </c>
       <c r="F72">
-        <v>181439.9996449988</v>
+        <v>140000</v>
       </c>
       <c r="G72">
-        <v>181439.9997401344</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5284,19 +5284,19 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>184031.9999895808</v>
+        <v>142000</v>
       </c>
       <c r="D73">
-        <v>184031.9978104289</v>
+        <v>142000</v>
       </c>
       <c r="E73">
-        <v>184031.9990722084</v>
+        <v>142000</v>
       </c>
       <c r="F73">
-        <v>184031.9994472283</v>
+        <v>142000</v>
       </c>
       <c r="G73">
-        <v>184031.9995924361</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5307,19 +5307,19 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>186623.9999799912</v>
+        <v>144000</v>
       </c>
       <c r="D74">
-        <v>186623.9967476797</v>
+        <v>143999.9999999999</v>
       </c>
       <c r="E74">
-        <v>186623.9985918514</v>
+        <v>144000</v>
       </c>
       <c r="F74">
-        <v>186623.9991505063</v>
+        <v>144000</v>
       </c>
       <c r="G74">
-        <v>186623.9993691522</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>189215.9999620909</v>
+        <v>146000</v>
       </c>
       <c r="D75">
-        <v>189215.9952300308</v>
+        <v>146000</v>
       </c>
       <c r="E75">
-        <v>189215.9978900201</v>
+        <v>146000</v>
       </c>
       <c r="F75">
-        <v>189215.998711226</v>
+        <v>146000</v>
       </c>
       <c r="G75">
-        <v>189215.9990360855</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5353,19 +5353,19 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>191807.9999291276</v>
+        <v>148000</v>
       </c>
       <c r="D76">
-        <v>191807.9930907357</v>
+        <v>148000</v>
       </c>
       <c r="E76">
-        <v>191807.9968779276</v>
+        <v>147999.9999999999</v>
       </c>
       <c r="F76">
-        <v>191807.9980693785</v>
+        <v>148000</v>
       </c>
       <c r="G76">
-        <v>191807.9985457504</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5376,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>194399.9998692321</v>
+        <v>150000</v>
       </c>
       <c r="D77">
-        <v>194399.990113406</v>
+        <v>150000</v>
       </c>
       <c r="E77">
-        <v>194399.9954370667</v>
+        <v>149999.9999999999</v>
       </c>
       <c r="F77">
-        <v>194399.9971435844</v>
+        <v>150000</v>
       </c>
       <c r="G77">
-        <v>194399.9978331671</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5399,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>196991.9997618233</v>
+        <v>152000</v>
       </c>
       <c r="D78">
-        <v>196991.9860213942</v>
+        <v>152000</v>
       </c>
       <c r="E78">
-        <v>196991.9934115658</v>
+        <v>151999.9999999999</v>
       </c>
       <c r="F78">
-        <v>196991.995825077</v>
+        <v>152000</v>
       </c>
       <c r="G78">
-        <v>196991.9968106951</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5422,19 +5422,19 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>199583.9995716976</v>
+        <v>154000</v>
       </c>
       <c r="D79">
-        <v>199583.9804662355</v>
+        <v>153999.9999999999</v>
       </c>
       <c r="E79">
-        <v>199583.9905993781</v>
+        <v>153999.9999999999</v>
       </c>
       <c r="F79">
-        <v>199583.9939705727</v>
+        <v>154000</v>
       </c>
       <c r="G79">
-        <v>199583.9953618197</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5445,19 +5445,19 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>202175.9992394363</v>
+        <v>156000</v>
       </c>
       <c r="D80">
-        <v>202175.9730154729</v>
+        <v>156000</v>
       </c>
       <c r="E80">
-        <v>202175.9867423783</v>
+        <v>156000</v>
       </c>
       <c r="F80">
-        <v>202175.991394012</v>
+        <v>156000</v>
       </c>
       <c r="G80">
-        <v>202175.9933338374</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5468,19 +5468,19 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>204767.9986660703</v>
+        <v>158000</v>
       </c>
       <c r="D81">
-        <v>204767.9631403151</v>
+        <v>158000</v>
       </c>
       <c r="E81">
-        <v>204767.9815155361</v>
+        <v>158000</v>
       </c>
       <c r="F81">
-        <v>204767.9878572184</v>
+        <v>158000</v>
       </c>
       <c r="G81">
-        <v>204767.9905294417</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5491,19 +5491,19 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>207359.9976888954</v>
+        <v>160000</v>
       </c>
       <c r="D82">
-        <v>207359.9502037106</v>
+        <v>160000</v>
       </c>
       <c r="E82">
-        <v>207359.9745154417</v>
+        <v>160000</v>
       </c>
       <c r="F82">
-        <v>207359.9830596155</v>
+        <v>160000</v>
       </c>
       <c r="G82">
-        <v>207359.9866972794</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5514,19 +5514,19 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>209951.9960438636</v>
+        <v>162000</v>
       </c>
       <c r="D83">
-        <v>209951.9334495348</v>
+        <v>161999.9999999999</v>
       </c>
       <c r="E83">
-        <v>209951.9652485773</v>
+        <v>162000</v>
       </c>
       <c r="F83">
-        <v>209951.9766272323</v>
+        <v>162000</v>
       </c>
       <c r="G83">
-        <v>209951.9815216303</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5537,19 +5537,19 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>212543.9933079045</v>
+        <v>164000</v>
       </c>
       <c r="D84">
-        <v>212543.9119936848</v>
+        <v>164000</v>
       </c>
       <c r="E84">
-        <v>212543.9531198457</v>
+        <v>164000</v>
       </c>
       <c r="F84">
-        <v>212543.9681013427</v>
+        <v>164000</v>
       </c>
       <c r="G84">
-        <v>212543.9746114701</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5560,19 +5560,19 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>215135.9888116744</v>
+        <v>166000</v>
       </c>
       <c r="D85">
-        <v>215135.8848179258</v>
+        <v>166000</v>
       </c>
       <c r="E85">
-        <v>215135.9374219819</v>
+        <v>166000</v>
       </c>
       <c r="F85">
-        <v>215135.9569271949</v>
+        <v>166000</v>
       </c>
       <c r="G85">
-        <v>215135.9654892751</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5583,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>217727.9815093719</v>
+        <v>168000</v>
       </c>
       <c r="D86">
-        <v>217727.8507673455</v>
+        <v>168000</v>
       </c>
       <c r="E86">
-        <v>217727.9173265607</v>
+        <v>168000</v>
       </c>
       <c r="F86">
-        <v>217727.9424433958</v>
+        <v>168000</v>
       </c>
       <c r="G86">
-        <v>217727.953580044</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5606,19 +5606,19 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>220319.9697871221</v>
+        <v>170000</v>
       </c>
       <c r="D87">
-        <v>220319.8085522096</v>
+        <v>169999.9999999999</v>
       </c>
       <c r="E87">
-        <v>220319.8918773754</v>
+        <v>170000</v>
       </c>
       <c r="F87">
-        <v>220319.9238726132</v>
+        <v>170000</v>
       </c>
       <c r="G87">
-        <v>220319.9382011117</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5629,19 +5629,19 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>222911.9511847583</v>
+        <v>172000</v>
       </c>
       <c r="D88">
-        <v>222911.7567549001</v>
+        <v>172000</v>
       </c>
       <c r="E88">
-        <v>222911.8599869821</v>
+        <v>172000</v>
       </c>
       <c r="F88">
-        <v>222911.9003143199</v>
+        <v>172000</v>
       </c>
       <c r="G88">
-        <v>222911.918553418</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5652,19 +5652,19 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>225503.9219973015</v>
+        <v>174000</v>
       </c>
       <c r="D89">
-        <v>225503.6938424235</v>
+        <v>174000</v>
       </c>
       <c r="E89">
-        <v>225503.8204371695</v>
+        <v>174000</v>
       </c>
       <c r="F89">
-        <v>225503.8707403379</v>
+        <v>174000</v>
       </c>
       <c r="G89">
-        <v>225503.8937149495</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5675,19 +5675,19 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>228095.8767118084</v>
+        <v>176000</v>
       </c>
       <c r="D90">
-        <v>228095.6181847322</v>
+        <v>176000</v>
       </c>
       <c r="E90">
-        <v>228095.7718840178</v>
+        <v>176000</v>
       </c>
       <c r="F90">
-        <v>228095.8339939304</v>
+        <v>176000</v>
       </c>
       <c r="G90">
-        <v>228095.8626370976</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5698,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>230687.8072222836</v>
+        <v>178000</v>
       </c>
       <c r="D91">
-        <v>230687.5280788023</v>
+        <v>178000</v>
       </c>
       <c r="E91">
-        <v>230687.7128680661</v>
+        <v>178000</v>
       </c>
       <c r="F91">
-        <v>230687.7887931133</v>
+        <v>178000</v>
       </c>
       <c r="G91">
-        <v>230687.8241446455</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>233279.7017499393</v>
+        <v>180000</v>
       </c>
       <c r="D92">
-        <v>233279.4217780832</v>
+        <v>179999.9999999999</v>
       </c>
       <c r="E92">
-        <v>233279.6418298878</v>
+        <v>180000</v>
       </c>
       <c r="F92">
-        <v>233279.7337387345</v>
+        <v>180000</v>
       </c>
       <c r="G92">
-        <v>233279.7769400206</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5744,19 +5744,19 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>235871.5433782658</v>
+        <v>182000</v>
       </c>
       <c r="D93">
-        <v>235871.2975265892</v>
+        <v>182000</v>
       </c>
       <c r="E93">
-        <v>235871.5571311208</v>
+        <v>182000</v>
       </c>
       <c r="F93">
-        <v>235871.667327695</v>
+        <v>182000</v>
       </c>
       <c r="G93">
-        <v>235871.7196123147</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5767,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>238463.3080924409</v>
+        <v>184000</v>
       </c>
       <c r="D94">
-        <v>238463.1535965843</v>
+        <v>184000</v>
       </c>
       <c r="E94">
-        <v>238463.4570807056</v>
+        <v>184000</v>
       </c>
       <c r="F94">
-        <v>238463.5879714429</v>
+        <v>184000</v>
       </c>
       <c r="G94">
-        <v>238463.6506513855</v>
+        <v>184000</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5790,19 +5790,19 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>241054.9621911353</v>
+        <v>186000</v>
       </c>
       <c r="D95">
-        <v>241054.9883285253</v>
+        <v>186000</v>
       </c>
       <c r="E95">
-        <v>241055.3399657664</v>
+        <v>186000</v>
       </c>
       <c r="F95">
-        <v>241055.4940196126</v>
+        <v>186000</v>
       </c>
       <c r="G95">
-        <v>241055.5684671218</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5813,19 +5813,19 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>243646.4589167499</v>
+        <v>188000</v>
       </c>
       <c r="D96">
-        <v>243646.8001717059</v>
+        <v>187999.9999999999</v>
       </c>
       <c r="E96">
-        <v>243647.2040862737</v>
+        <v>188000</v>
       </c>
       <c r="F96">
-        <v>243647.3837883862</v>
+        <v>188000</v>
       </c>
       <c r="G96">
-        <v>243647.4714136867</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5836,19 +5836,19 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>246237.7341289284</v>
+        <v>190000</v>
       </c>
       <c r="D97">
-        <v>246238.5877239176</v>
+        <v>190000</v>
       </c>
       <c r="E97">
-        <v>246239.0477923455</v>
+        <v>190000</v>
       </c>
       <c r="F97">
-        <v>246239.2555928568</v>
+        <v>190000</v>
       </c>
       <c r="G97">
-        <v>246239.3578182648</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5859,19 +5859,19 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>248828.7008277641</v>
+        <v>192000</v>
       </c>
       <c r="D98">
-        <v>248830.3497684095</v>
+        <v>192000</v>
       </c>
       <c r="E98">
-        <v>248830.8695228162</v>
+        <v>192000</v>
       </c>
       <c r="F98">
-        <v>248831.1077824005</v>
+        <v>192000</v>
       </c>
       <c r="G98">
-        <v>248831.2260135617</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5882,19 +5882,19 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>251419.2423198</v>
+        <v>194000</v>
       </c>
       <c r="D99">
-        <v>251422.0853064966</v>
+        <v>194000</v>
       </c>
       <c r="E99">
-        <v>251422.6678435499</v>
+        <v>194000</v>
       </c>
       <c r="F99">
-        <v>251422.9387778233</v>
+        <v>194000</v>
       </c>
       <c r="G99">
-        <v>251423.0743730314</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5905,19 +5905,19 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>254009.2038145647</v>
+        <v>196000</v>
       </c>
       <c r="D100">
-        <v>254013.7935843547</v>
+        <v>195999.9999999999</v>
       </c>
       <c r="E100">
-        <v>254014.4414839062</v>
+        <v>196000</v>
       </c>
       <c r="F100">
-        <v>254014.7471088788</v>
+        <v>196000</v>
       </c>
       <c r="G100">
-        <v>254014.9013475962</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5928,19 +5928,19 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>256598.3822451518</v>
+        <v>198000</v>
       </c>
       <c r="D101">
-        <v>256605.4741127978</v>
+        <v>197999.9999999999</v>
       </c>
       <c r="E101">
-        <v>256606.1893697867</v>
+        <v>198000</v>
       </c>
       <c r="F101">
-        <v>256606.5314506406</v>
+        <v>198000</v>
       </c>
       <c r="G101">
-        <v>256606.7055024579</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5951,19 +5951,19 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>259186.5141265498</v>
+        <v>200000</v>
       </c>
       <c r="D102">
-        <v>259197.1266791878</v>
+        <v>200000</v>
       </c>
       <c r="E102">
-        <v>259197.9106518152</v>
+        <v>200000</v>
       </c>
       <c r="F102">
-        <v>259198.2906572108</v>
+        <v>200000</v>
       </c>
       <c r="G102">
-        <v>259198.4855525192</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>261773.2613033682</v>
+        <v>202000</v>
       </c>
       <c r="D103">
-        <v>261788.7513510208</v>
+        <v>202000</v>
       </c>
       <c r="E103">
-        <v>261789.6047274163</v>
+        <v>202000</v>
       </c>
       <c r="F103">
-        <v>261790.0237913133</v>
+        <v>202000</v>
       </c>
       <c r="G103">
-        <v>261790.2403949349</v>
+        <v>202000</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5997,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>264358.1944970824</v>
+        <v>204000</v>
       </c>
       <c r="D104">
-        <v>264380.3484711474</v>
+        <v>204000</v>
       </c>
       <c r="E104">
-        <v>264381.2712558377</v>
+        <v>204000</v>
       </c>
       <c r="F104">
-        <v>264381.7301484911</v>
+        <v>204000</v>
       </c>
       <c r="G104">
-        <v>264381.9691374016</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6020,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>266940.7746440844</v>
+        <v>206000</v>
       </c>
       <c r="D105">
-        <v>266971.9186449982</v>
+        <v>205999.9999999999</v>
       </c>
       <c r="E105">
-        <v>266972.9101655118</v>
+        <v>206000</v>
       </c>
       <c r="F105">
-        <v>266973.4092748647</v>
+        <v>206000</v>
       </c>
       <c r="G105">
-        <v>266973.6711209707</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6043,19 +6043,19 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>269520.3321205897</v>
+        <v>208000</v>
       </c>
       <c r="D106">
-        <v>269563.4627205664</v>
+        <v>208000</v>
       </c>
       <c r="E106">
-        <v>269564.5216535264</v>
+        <v>207999.9999999999</v>
       </c>
       <c r="F106">
-        <v>269565.0609777205</v>
+        <v>208000</v>
       </c>
       <c r="G106">
-        <v>269565.3459364098</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6066,19 +6066,19 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>272096.0440781904</v>
+        <v>210000</v>
       </c>
       <c r="D107">
-        <v>272154.9817622058</v>
+        <v>210000</v>
       </c>
       <c r="E107">
-        <v>272156.1061773494</v>
+        <v>209999.9999999999</v>
       </c>
       <c r="F107">
-        <v>272156.6853285332</v>
+        <v>210000</v>
       </c>
       <c r="G107">
-        <v>272156.9934334558</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6089,19 +6089,19 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>274666.9102620236</v>
+        <v>212000</v>
       </c>
       <c r="D108">
-        <v>274746.4770195594</v>
+        <v>212000</v>
       </c>
       <c r="E108">
-        <v>274747.6644393358</v>
+        <v>211999.9999999999</v>
       </c>
       <c r="F108">
-        <v>274748.282658409</v>
+        <v>212000</v>
       </c>
       <c r="G108">
-        <v>274748.6137226284</v>
+        <v>212000</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6112,19 +6112,19 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>277231.7278474295</v>
+        <v>214000</v>
       </c>
       <c r="D109">
-        <v>277337.9498930688</v>
+        <v>213999.9999999999</v>
       </c>
       <c r="E109">
-        <v>277339.1973648446</v>
+        <v>213999.9999999999</v>
       </c>
       <c r="F109">
-        <v>277339.853546275</v>
+        <v>214000</v>
       </c>
       <c r="G109">
-        <v>277340.2071696412</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6135,19 +6135,19 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>279789.0660036012</v>
+        <v>216000</v>
       </c>
       <c r="D110">
-        <v>279929.4018975946</v>
+        <v>216000</v>
       </c>
       <c r="E110">
-        <v>279930.7060750761</v>
+        <v>215999.9999999999</v>
       </c>
       <c r="F110">
-        <v>279931.3988004794</v>
+        <v>216000</v>
       </c>
       <c r="G110">
-        <v>279931.7743827788</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -6158,19 +6158,19 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>282337.2410648636</v>
+        <v>218000</v>
       </c>
       <c r="D111">
-        <v>282520.8346256301</v>
+        <v>218000</v>
       </c>
       <c r="E111">
-        <v>282522.1918559073</v>
+        <v>218000</v>
       </c>
       <c r="F111">
-        <v>282522.9194347546</v>
+        <v>218000</v>
       </c>
       <c r="G111">
-        <v>282523.3161939451</v>
+        <v>218000</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -6181,19 +6181,19 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>284874.2933506687</v>
+        <v>220000</v>
       </c>
       <c r="D112">
-        <v>285112.2497115009</v>
+        <v>220000</v>
       </c>
       <c r="E112">
-        <v>285113.6561241245</v>
+        <v>220000</v>
       </c>
       <c r="F112">
-        <v>285114.4166396796</v>
+        <v>220000</v>
       </c>
       <c r="G112">
-        <v>285114.8336343177</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6204,19 +6204,19 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>287397.9668116382</v>
+        <v>222000</v>
       </c>
       <c r="D113">
-        <v>287703.6487977541</v>
+        <v>222000</v>
       </c>
       <c r="E113">
-        <v>287705.1003924556</v>
+        <v>222000</v>
       </c>
       <c r="F113">
-        <v>287705.891750953</v>
+        <v>222000</v>
       </c>
       <c r="G113">
-        <v>287706.3279057739</v>
+        <v>222000</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6227,19 +6227,19 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>289905.6927777103</v>
+        <v>224000</v>
       </c>
       <c r="D114">
-        <v>290295.033504731</v>
+        <v>223999.9999999999</v>
       </c>
       <c r="E114">
-        <v>290296.5262347676</v>
+        <v>224000</v>
       </c>
       <c r="F114">
-        <v>290297.3462158209</v>
+        <v>224000</v>
       </c>
       <c r="G114">
-        <v>290297.8003493526</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6250,19 +6250,19 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>292394.5791327445</v>
+        <v>226000</v>
       </c>
       <c r="D115">
-        <v>292886.4054040586</v>
+        <v>226000</v>
       </c>
       <c r="E115">
-        <v>292887.9352526443</v>
+        <v>226000</v>
       </c>
       <c r="F115">
-        <v>292888.7815589948</v>
+        <v>226000</v>
       </c>
       <c r="G115">
-        <v>292889.2524120857</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6273,19 +6273,19 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>294861.4062261492</v>
+        <v>228000</v>
       </c>
       <c r="D116">
-        <v>295477.7659965419</v>
+        <v>228000</v>
       </c>
       <c r="E116">
-        <v>295479.3290444076</v>
+        <v>228000</v>
       </c>
       <c r="F116">
-        <v>295480.1993493101</v>
+        <v>228000</v>
       </c>
       <c r="G116">
-        <v>295480.6856134799</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6296,19 +6296,19 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>297302.6307471388</v>
+        <v>230000</v>
       </c>
       <c r="D117">
-        <v>298069.1166946827</v>
+        <v>230000</v>
       </c>
       <c r="E117">
-        <v>298070.7091774135</v>
+        <v>230000</v>
       </c>
       <c r="F117">
-        <v>298071.6011682271</v>
+        <v>230000</v>
       </c>
       <c r="G117">
-        <v>298072.10151287</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6319,19 +6319,19 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>299714.398625507</v>
+        <v>232000</v>
       </c>
       <c r="D118">
-        <v>300660.4588098153</v>
+        <v>231999.9999999999</v>
       </c>
       <c r="E118">
-        <v>300662.0771642209</v>
+        <v>232000</v>
       </c>
       <c r="F118">
-        <v>300662.9885810905</v>
+        <v>232000</v>
       </c>
       <c r="G118">
-        <v>300663.5016786888</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6342,19 +6342,19 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>302092.567783337</v>
+        <v>234000</v>
       </c>
       <c r="D119">
-        <v>303251.7935436634</v>
+        <v>234000</v>
       </c>
       <c r="E119">
-        <v>303253.4344430035</v>
+        <v>234000</v>
       </c>
       <c r="F119">
-        <v>303254.3631118441</v>
+        <v>234000</v>
       </c>
       <c r="G119">
-        <v>303254.8876605292</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6365,19 +6365,19 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>304432.741248981</v>
+        <v>236000</v>
       </c>
       <c r="D120">
-        <v>305843.1219839494</v>
+        <v>236000</v>
       </c>
       <c r="E120">
-        <v>305844.7823623326</v>
+        <v>236000</v>
       </c>
       <c r="F120">
-        <v>305845.7262216789</v>
+        <v>236000</v>
       </c>
       <c r="G120">
-        <v>305846.2609646557</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6388,19 +6388,19 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>306730.3107675702</v>
+        <v>238000</v>
       </c>
       <c r="D121">
-        <v>308434.4451035828</v>
+        <v>238000</v>
       </c>
       <c r="E121">
-        <v>308436.1221702678</v>
+        <v>238000</v>
       </c>
       <c r="F121">
-        <v>308437.0792918543</v>
+        <v>238000</v>
       </c>
       <c r="G121">
-        <v>308437.6230334042</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6411,19 +6411,19 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>308980.5106163106</v>
+        <v>240000</v>
       </c>
       <c r="D122">
-        <v>311025.7637628723</v>
+        <v>239999.9999999999</v>
       </c>
       <c r="E122">
-        <v>311027.4550075168</v>
+        <v>240000</v>
       </c>
       <c r="F122">
-        <v>311028.4236107419</v>
+        <v>240000</v>
       </c>
       <c r="G122">
-        <v>311028.9752286908</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6434,19 +6434,19 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>311178.4808776868</v>
+        <v>242000</v>
       </c>
       <c r="D123">
-        <v>313617.0787141808</v>
+        <v>241999.9999999999</v>
       </c>
       <c r="E123">
-        <v>313618.781904289</v>
+        <v>242000</v>
       </c>
       <c r="F123">
-        <v>313619.7603649484</v>
+        <v>242000</v>
       </c>
       <c r="G123">
-        <v>313620.3188196492</v>
+        <v>242000</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6457,19 +6457,19 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>313319.3389630546</v>
+        <v>244000</v>
       </c>
       <c r="D124">
-        <v>316208.3906084386</v>
+        <v>244000</v>
       </c>
       <c r="E124">
-        <v>316210.1037803767</v>
+        <v>244000</v>
       </c>
       <c r="F124">
-        <v>316211.0906342258</v>
+        <v>244000</v>
       </c>
       <c r="G124">
-        <v>316211.6549742487</v>
+        <v>244000</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6480,19 +6480,19 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>315398.257738909</v>
+        <v>246000</v>
       </c>
       <c r="D125">
-        <v>318799.7000029666</v>
+        <v>246000</v>
       </c>
       <c r="E125">
-        <v>318801.421447938</v>
+        <v>246000</v>
       </c>
       <c r="F125">
-        <v>318802.4153897757</v>
+        <v>246000</v>
       </c>
       <c r="G125">
-        <v>318802.9847545963</v>
+        <v>246000</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6503,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>317410.5482149778</v>
+        <v>248000</v>
       </c>
       <c r="D126">
-        <v>321391.0073700991</v>
+        <v>248000</v>
       </c>
       <c r="E126">
-        <v>321392.7356164342</v>
+        <v>248000</v>
       </c>
       <c r="F126">
-        <v>321393.7354954625</v>
+        <v>248000</v>
       </c>
       <c r="G126">
-        <v>321394.3091155224</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6526,19 +6526,19 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>319351.7444325574</v>
+        <v>250000</v>
       </c>
       <c r="D127">
-        <v>323982.313106182</v>
+        <v>249999.9999999999</v>
       </c>
       <c r="E127">
-        <v>323984.046899189</v>
+        <v>250000</v>
       </c>
       <c r="F127">
-        <v>323985.051711429</v>
+        <v>250000</v>
       </c>
       <c r="G127">
-        <v>323985.6289059886</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6549,19 +6549,19 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>321217.6879653537</v>
+        <v>252000</v>
       </c>
       <c r="D128">
-        <v>326573.6175405745</v>
+        <v>252000</v>
       </c>
       <c r="E128">
-        <v>326575.3558210608</v>
+        <v>252000</v>
       </c>
       <c r="F128">
-        <v>326576.3646995825</v>
+        <v>252000</v>
       </c>
       <c r="G128">
-        <v>326576.9448727999</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6572,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>323004.6093308547</v>
+        <v>254000</v>
       </c>
       <c r="D129">
-        <v>329164.9209443736</v>
+        <v>254000</v>
       </c>
       <c r="E129">
-        <v>329166.6628267764</v>
+        <v>254000</v>
       </c>
       <c r="F129">
-        <v>329167.6750304532</v>
+        <v>254000</v>
       </c>
       <c r="G129">
-        <v>329168.2576661228</v>
+        <v>254000</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>324709.2036188907</v>
+        <v>256000</v>
       </c>
       <c r="D130">
-        <v>331756.2235386407</v>
+        <v>256000</v>
       </c>
       <c r="E130">
-        <v>331757.9682895312</v>
+        <v>256000</v>
       </c>
       <c r="F130">
-        <v>331758.9831909531</v>
+        <v>256000</v>
       </c>
       <c r="G130">
-        <v>331759.5678463106</v>
+        <v>256000</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6618,19 +6618,19 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>326328.6977791992</v>
+        <v>257999.9999999999</v>
       </c>
       <c r="D131">
-        <v>334347.5255019873</v>
+        <v>257999.9999999999</v>
       </c>
       <c r="E131">
-        <v>334349.2725195432</v>
+        <v>257999.9999999999</v>
       </c>
       <c r="F131">
-        <v>334350.289592622</v>
+        <v>257999.9999999999</v>
       </c>
       <c r="G131">
-        <v>334350.8758915824</v>
+        <v>257999.9999999999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6641,19 +6641,19 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>327860.9072674449</v>
+        <v>259999.9999999999</v>
       </c>
       <c r="D132">
-        <v>336938.8269774282</v>
+        <v>259999.9999999999</v>
       </c>
       <c r="E132">
-        <v>336940.5757722932</v>
+        <v>259999.9999999999</v>
       </c>
       <c r="F132">
-        <v>336941.5945800135</v>
+        <v>259999.9999999999</v>
       </c>
       <c r="G132">
-        <v>336942.1822061622</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6664,19 +6664,19 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>329304.2801175331</v>
+        <v>261999.9999999999</v>
       </c>
       <c r="D133">
-        <v>339530.1280784637</v>
+        <v>261999.9999999999</v>
       </c>
       <c r="E133">
-        <v>339531.8782562708</v>
+        <v>261999.9999999999</v>
       </c>
       <c r="F133">
-        <v>339532.898438931</v>
+        <v>261999.9999999999</v>
       </c>
       <c r="G133">
-        <v>339533.4871285293</v>
+        <v>262000</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6687,19 +6687,19 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>330657.9269686097</v>
+        <v>263999.9999999999</v>
       </c>
       <c r="D134">
-        <v>342121.4288943831</v>
+        <v>263999.9999999999</v>
       </c>
       <c r="E134">
-        <v>342123.1801401001</v>
+        <v>263999.9999999999</v>
       </c>
       <c r="F134">
-        <v>342124.2014042934</v>
+        <v>263999.9999999999</v>
       </c>
       <c r="G134">
-        <v>342124.790939515</v>
+        <v>263999.9999999999</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6710,19 +6710,19 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>331921.6361037077</v>
+        <v>265999.9999999999</v>
       </c>
       <c r="D135">
-        <v>344712.7294948258</v>
+        <v>265999.9999999999</v>
       </c>
       <c r="E135">
-        <v>344714.4815589615</v>
+        <v>265999.9999999999</v>
       </c>
       <c r="F135">
-        <v>344715.5036674755</v>
+        <v>265999.9999999999</v>
       </c>
       <c r="G135">
-        <v>344716.0938700228</v>
+        <v>265999.9999999999</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6733,19 +6733,19 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>333095.8731253344</v>
+        <v>267999.9999999999</v>
       </c>
       <c r="D136">
-        <v>347304.0299336472</v>
+        <v>267999.9999999999</v>
       </c>
       <c r="E136">
-        <v>347305.7826202873</v>
+        <v>267999.9999999999</v>
       </c>
       <c r="F136">
-        <v>347306.8053830104</v>
+        <v>267999.9999999999</v>
       </c>
       <c r="G136">
-        <v>347307.3961082266</v>
+        <v>267999.9999999999</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6756,19 +6756,19 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>334181.7654712806</v>
+        <v>269999.9999999999</v>
       </c>
       <c r="D137">
-        <v>349895.3302521451</v>
+        <v>269999.9999999999</v>
       </c>
       <c r="E137">
-        <v>349897.0834087251</v>
+        <v>269999.9999999999</v>
       </c>
       <c r="F137">
-        <v>349898.1066746066</v>
+        <v>269999.9999999999</v>
       </c>
       <c r="G137">
-        <v>349898.697806145</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6779,19 +6779,19 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>335181.0725313483</v>
+        <v>271999.9999999999</v>
       </c>
       <c r="D138">
-        <v>352486.6304817274</v>
+        <v>271999.9999999999</v>
       </c>
       <c r="E138">
-        <v>352488.3839904061</v>
+        <v>271999.9999999999</v>
       </c>
       <c r="F138">
-        <v>352489.4076404542</v>
+        <v>271999.9999999999</v>
       </c>
       <c r="G138">
-        <v>352489.9990855365</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6802,19 +6802,19 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>336096.1426344389</v>
+        <v>273999.9999999999</v>
       </c>
       <c r="D139">
-        <v>355077.9306460851</v>
+        <v>273999.9999999999</v>
       </c>
       <c r="E139">
-        <v>355079.6844165565</v>
+        <v>273999.9999999999</v>
       </c>
       <c r="F139">
-        <v>355080.7083578327</v>
+        <v>273999.9999999999</v>
       </c>
       <c r="G139">
-        <v>355081.3000431006</v>
+        <v>273999.9999999999</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6825,19 +6825,19 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>336929.858611192</v>
+        <v>275999.9999999999</v>
       </c>
       <c r="D140">
-        <v>357669.230762943</v>
+        <v>275999.9999999999</v>
       </c>
       <c r="E140">
-        <v>357670.9847265229</v>
+        <v>275999.9999999999</v>
       </c>
       <c r="F140">
-        <v>357672.0088870609</v>
+        <v>275999.9999999999</v>
       </c>
       <c r="G140">
-        <v>357672.6007549959</v>
+        <v>275999.9999999999</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6848,19 +6848,19 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>337685.5739809985</v>
+        <v>277999.9999999999</v>
       </c>
       <c r="D141">
-        <v>360260.5308454534</v>
+        <v>277999.9999999999</v>
       </c>
       <c r="E141">
-        <v>360262.2849502629</v>
+        <v>277999.9999999999</v>
       </c>
       <c r="F141">
-        <v>360263.309274828</v>
+        <v>277999.9999999999</v>
       </c>
       <c r="G141">
-        <v>360263.9012807095</v>
+        <v>277999.9999999999</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6871,19 +6871,19 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>338367.0420508742</v>
+        <v>279999.9999999999</v>
       </c>
       <c r="D142">
-        <v>362851.8309032963</v>
+        <v>279999.9999999999</v>
       </c>
       <c r="E142">
-        <v>362853.5851103789</v>
+        <v>279999.9999999999</v>
       </c>
       <c r="F142">
-        <v>362854.6095569772</v>
+        <v>280000</v>
       </c>
       <c r="G142">
-        <v>362855.2016663255</v>
+        <v>279999.9999999999</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6894,19 +6894,19 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>338978.3403412153</v>
+        <v>281999.9999999999</v>
       </c>
       <c r="D143">
-        <v>365443.1309435349</v>
+        <v>281999.9999999999</v>
       </c>
       <c r="E143">
-        <v>365444.8852237519</v>
+        <v>281999.9999999999</v>
       </c>
       <c r="F143">
-        <v>365445.909760794</v>
+        <v>281999.9999999999</v>
       </c>
       <c r="G143">
-        <v>365446.5019472573</v>
+        <v>281999.9999999999</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6917,19 +6917,19 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>339523.7927703382</v>
+        <v>283999.9999999999</v>
       </c>
       <c r="D144">
-        <v>368034.4309712728</v>
+        <v>283999.9999999999</v>
       </c>
       <c r="E144">
-        <v>368036.1853028393</v>
+        <v>283999.9999999999</v>
       </c>
       <c r="F144">
-        <v>368037.2099068712</v>
+        <v>283999.9999999999</v>
       </c>
       <c r="G144">
-        <v>368037.8021504934</v>
+        <v>283999.9999999999</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6940,19 +6940,19 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>340007.8919427116</v>
+        <v>285999.9999999999</v>
       </c>
       <c r="D145">
-        <v>370625.7309901544</v>
+        <v>285999.9999999999</v>
       </c>
       <c r="E145">
-        <v>370627.4853566883</v>
+        <v>285999.9999999999</v>
       </c>
       <c r="F145">
-        <v>370628.510010607</v>
+        <v>285999.9999999999</v>
       </c>
       <c r="G145">
-        <v>370629.1022964318</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6963,19 +6963,19 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>340435.2237068824</v>
+        <v>287999.9999999999</v>
       </c>
       <c r="D146">
-        <v>373217.0310027376</v>
+        <v>287999.9999999999</v>
       </c>
       <c r="E146">
-        <v>373218.785391717</v>
+        <v>287999.9999999999</v>
       </c>
       <c r="F146">
-        <v>373219.8100833911</v>
+        <v>287999.9999999999</v>
       </c>
       <c r="G146">
-        <v>373220.4024003518</v>
+        <v>287999.9999999999</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6986,19 +6986,19 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>340810.3958944791</v>
+        <v>289999.9999999999</v>
       </c>
       <c r="D147">
-        <v>375808.3310107631</v>
+        <v>289999.9999999999</v>
       </c>
       <c r="E147">
-        <v>375810.0854122971</v>
+        <v>289999.9999999999</v>
       </c>
       <c r="F147">
-        <v>375811.1101335422</v>
+        <v>289999.9999999999</v>
       </c>
       <c r="G147">
-        <v>375811.7024735899</v>
+        <v>289999.9999999999</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -7009,19 +7009,19 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>341137.9728402363</v>
+        <v>291999.9999999999</v>
       </c>
       <c r="D148">
-        <v>378399.6310153421</v>
+        <v>291999.9999999999</v>
       </c>
       <c r="E148">
-        <v>378401.3854211784</v>
+        <v>291999.9999999999</v>
       </c>
       <c r="F148">
-        <v>378402.4101670205</v>
+        <v>291999.9999999999</v>
       </c>
       <c r="G148">
-        <v>378403.0025244588</v>
+        <v>291999.9999999999</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7032,19 +7032,19 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>341422.4169350034</v>
+        <v>293999.9999999999</v>
       </c>
       <c r="D149">
-        <v>380990.9310170736</v>
+        <v>293999.9999999999</v>
       </c>
       <c r="E149">
-        <v>380992.6854197783</v>
+        <v>293999.9999999999</v>
       </c>
       <c r="F149">
-        <v>380993.7101879747</v>
+        <v>293999.9999999999</v>
       </c>
       <c r="G149">
-        <v>380994.3025589608</v>
+        <v>293999.9999999999</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7055,19 +7055,19 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>341668.0380993803</v>
+        <v>295999.9999999999</v>
       </c>
       <c r="D150">
-        <v>383582.231016093</v>
+        <v>295999.9999999999</v>
       </c>
       <c r="E150">
-        <v>383583.9854083568</v>
+        <v>295999.9999999999</v>
       </c>
       <c r="F150">
-        <v>383585.0101991405</v>
+        <v>295999.9999999999</v>
       </c>
       <c r="G150">
-        <v>383585.6025813318</v>
+        <v>295999.9999999999</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -7078,19 +7078,19 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>341878.9517039445</v>
+        <v>297999.9999999999</v>
       </c>
       <c r="D151">
-        <v>386173.5310120623</v>
+        <v>297999.9999999999</v>
       </c>
       <c r="E151">
-        <v>386175.2853860954</v>
+        <v>297999.9999999999</v>
       </c>
       <c r="F151">
-        <v>386176.3102021225</v>
+        <v>297999.9999999999</v>
       </c>
       <c r="G151">
-        <v>386176.9025944445</v>
+        <v>297999.9999999999</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -7101,19 +7101,19 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>342059.0451196739</v>
+        <v>299999.9999999999</v>
       </c>
       <c r="D152">
-        <v>388764.8310040867</v>
+        <v>299999.9999999999</v>
       </c>
       <c r="E152">
-        <v>388766.5853510848</v>
+        <v>299999.9999999999</v>
       </c>
       <c r="F152">
-        <v>388767.6101975767</v>
+        <v>299999.9999999999</v>
       </c>
       <c r="G152">
-        <v>388768.2026001002</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -7124,19 +7124,19 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>342211.9527728608</v>
+        <v>301999.9999999999</v>
       </c>
       <c r="D153">
-        <v>391356.1309905443</v>
+        <v>301999.9999999999</v>
       </c>
       <c r="E153">
-        <v>391357.8853002317</v>
+        <v>301999.9999999999</v>
       </c>
       <c r="F153">
-        <v>391358.9101853125</v>
+        <v>301999.9999999999</v>
       </c>
       <c r="G153">
-        <v>391359.5025992236</v>
+        <v>302000</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7147,19 +7147,19 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>342341.039312743</v>
+        <v>303999.9999999999</v>
       </c>
       <c r="D154">
-        <v>393947.4309687979</v>
+        <v>303999.9999999999</v>
       </c>
       <c r="E154">
-        <v>393949.1852290829</v>
+        <v>303999.9999999999</v>
       </c>
       <c r="F154">
-        <v>393950.2101643174</v>
+        <v>303999.9999999999</v>
       </c>
       <c r="G154">
-        <v>393950.8025919849</v>
+        <v>303999.9999999999</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7170,19 +7170,19 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>342449.3902839797</v>
+        <v>305999.9999999999</v>
       </c>
       <c r="D155">
-        <v>396538.7309347597</v>
+        <v>305999.9999999999</v>
       </c>
       <c r="E155">
-        <v>396540.4851315638</v>
+        <v>305999.9999999999</v>
       </c>
       <c r="F155">
-        <v>396541.5101327182</v>
+        <v>305999.9999999999</v>
       </c>
       <c r="G155">
-        <v>396542.1025778497</v>
+        <v>305999.9999999999</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7193,19 +7193,19 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>342539.8095330232</v>
+        <v>307999.9999999999</v>
       </c>
       <c r="D156">
-        <v>399130.0308822285</v>
+        <v>307999.9999999999</v>
       </c>
       <c r="E156">
-        <v>399131.7849996302</v>
+        <v>307999.9999999999</v>
       </c>
       <c r="F156">
-        <v>399132.8100876739</v>
+        <v>307999.9999999999</v>
       </c>
       <c r="G156">
-        <v>399133.4025555699</v>
+        <v>307999.9999999999</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -7216,19 +7216,19 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>342614.822467394</v>
+        <v>309999.9999999999</v>
       </c>
       <c r="D157">
-        <v>401721.3308019273</v>
+        <v>309999.9999999999</v>
       </c>
       <c r="E157">
-        <v>401723.0848228182</v>
+        <v>309999.9999999999</v>
       </c>
       <c r="F157">
-        <v>401724.1100252066</v>
+        <v>309999.9999999999</v>
       </c>
       <c r="G157">
-        <v>401724.7025231199</v>
+        <v>309999.9999999999</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7239,19 +7239,19 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>342676.6842270092</v>
+        <v>311999.9999999999</v>
       </c>
       <c r="D158">
-        <v>404312.6306801107</v>
+        <v>311999.9999999999</v>
       </c>
       <c r="E158">
-        <v>404314.3845876907</v>
+        <v>311999.9999999999</v>
       </c>
       <c r="F158">
-        <v>404315.4099399581</v>
+        <v>311999.9999999999</v>
       </c>
       <c r="G158">
-        <v>404316.0024775727</v>
+        <v>311999.9999999999</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7262,19 +7262,19 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>342727.3918121519</v>
+        <v>313999.9999999999</v>
       </c>
       <c r="D159">
-        <v>406903.9304965754</v>
+        <v>313999.9999999999</v>
       </c>
       <c r="E159">
-        <v>406905.684277159</v>
+        <v>313999.9999999999</v>
       </c>
       <c r="F159">
-        <v>406906.7098248781</v>
+        <v>313999.9999999999</v>
       </c>
       <c r="G159">
-        <v>406907.3024149193</v>
+        <v>314000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7285,19 +7285,19 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>342768.6992369021</v>
+        <v>315999.9999999999</v>
       </c>
       <c r="D160">
-        <v>409495.2302218363</v>
+        <v>315999.9999999999</v>
       </c>
       <c r="E160">
-        <v>409496.9838696748</v>
+        <v>315999.9999999999</v>
       </c>
       <c r="F160">
-        <v>409498.0096708221</v>
+        <v>315999.9999999999</v>
       </c>
       <c r="G160">
-        <v>409498.6023298245</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7308,19 +7308,19 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>342802.1348324966</v>
+        <v>317999.9999999999</v>
       </c>
       <c r="D161">
-        <v>412086.5298131534</v>
+        <v>317999.9999999999</v>
       </c>
       <c r="E161">
-        <v>412088.2833382732</v>
+        <v>317999.9999999999</v>
       </c>
       <c r="F161">
-        <v>412089.3094660585</v>
+        <v>317999.9999999999</v>
       </c>
       <c r="G161">
-        <v>412089.9022153126</v>
+        <v>317999.9999999999</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7331,19 +7331,19 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>342829.0199044476</v>
+        <v>319999.9999999999</v>
       </c>
       <c r="D162">
-        <v>414677.8292089807</v>
+        <v>319999.9999999999</v>
       </c>
       <c r="E162">
-        <v>414679.5826494552</v>
+        <v>319999.9999999999</v>
       </c>
       <c r="F162">
-        <v>414680.6091956709</v>
+        <v>319999.9999999999</v>
       </c>
       <c r="G162">
-        <v>414681.2020623722</v>
+        <v>319999.9999999999</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7354,19 +7354,19 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>342850.4880427152</v>
+        <v>321999.9999999999</v>
       </c>
       <c r="D163">
-        <v>417269.1283212699</v>
+        <v>321999.9999999999</v>
       </c>
       <c r="E163">
-        <v>417270.8817618957</v>
+        <v>321999.9999999999</v>
       </c>
       <c r="F163">
-        <v>417271.9088408411</v>
+        <v>321999.9999999999</v>
       </c>
       <c r="G163">
-        <v>417272.5018594736</v>
+        <v>321999.9999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_2.xlsx
+++ b/data/output/best_policy_2.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,46 +590,6 @@
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -637,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>573.7818807407348</v>
+        <v>1809.574389246517</v>
       </c>
       <c r="D3">
-        <v>709.3202379416711</v>
+        <v>2344.971939623008</v>
       </c>
       <c r="E3">
-        <v>763.4617546485173</v>
+        <v>2643.35845836903</v>
       </c>
       <c r="F3">
-        <v>785.1301507637351</v>
+        <v>2807.283772019591</v>
       </c>
       <c r="G3">
-        <v>793.7967215421278</v>
+        <v>2896.393552471098</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -717,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>861.6270715607733</v>
+        <v>2518.558998929723</v>
       </c>
       <c r="D4">
-        <v>1221.199570471815</v>
+        <v>3693.012577056907</v>
       </c>
       <c r="E4">
-        <v>1414.483348159255</v>
+        <v>4527.299551883267</v>
       </c>
       <c r="F4">
-        <v>1511.710547354924</v>
+        <v>5086.012534506178</v>
       </c>
       <c r="G4">
-        <v>1558.557660040299</v>
+        <v>5444.982493744985</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -740,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>968.7621784350139</v>
+        <v>2718.776890248847</v>
       </c>
       <c r="D5">
-        <v>1517.907891801709</v>
+        <v>4282.240360315679</v>
       </c>
       <c r="E5">
-        <v>1891.749861967628</v>
+        <v>5602.175185808664</v>
       </c>
       <c r="F5">
-        <v>2121.424540727166</v>
+        <v>6638.778107703443</v>
       </c>
       <c r="G5">
-        <v>2252.663422957217</v>
+        <v>7407.769329661788</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -763,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>999.7589055190657</v>
+        <v>2762.203953885465</v>
       </c>
       <c r="D6">
-        <v>1658.219131103674</v>
+        <v>4486.389136013648</v>
       </c>
       <c r="E6">
-        <v>2189.755476648132</v>
+        <v>6102.285732401537</v>
       </c>
       <c r="F6">
-        <v>2575.026646306881</v>
+        <v>7526.507111242821</v>
       </c>
       <c r="G6">
-        <v>2831.039779281868</v>
+        <v>8712.200920077536</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -786,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1006.696158096368</v>
+        <v>2769.391377489595</v>
       </c>
       <c r="D7">
-        <v>1713.256779667239</v>
+        <v>4543.9693598563</v>
       </c>
       <c r="E7">
-        <v>2348.983654905011</v>
+        <v>6296.134289172807</v>
       </c>
       <c r="F7">
-        <v>2872.035713539655</v>
+        <v>7957.248262767561</v>
       </c>
       <c r="G7">
-        <v>3266.857957826471</v>
+        <v>9461.557599331212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -809,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1007.551239604247</v>
+        <v>2769.877840181175</v>
       </c>
       <c r="D8">
-        <v>1731.096051152548</v>
+        <v>4556.919526648152</v>
       </c>
       <c r="E8">
-        <v>2422.244855066393</v>
+        <v>6359.42587839756</v>
       </c>
       <c r="F8">
-        <v>3043.327290484355</v>
+        <v>8136.754106202925</v>
       </c>
       <c r="G8">
-        <v>3562.05822150896</v>
+        <v>9836.476649601304</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -832,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1007.125023907452</v>
+        <v>2769.331757729935</v>
       </c>
       <c r="D9">
-        <v>1735.412532803728</v>
+        <v>4558.544775030859</v>
       </c>
       <c r="E9">
-        <v>2451.124404561437</v>
+        <v>6376.337303564563</v>
       </c>
       <c r="F9">
-        <v>3130.494107845054</v>
+        <v>8201.156590095448</v>
       </c>
       <c r="G9">
-        <v>3741.626292571133</v>
+        <v>10000.89792311752</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -855,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1006.467444981782</v>
+        <v>2768.649300448807</v>
       </c>
       <c r="D10">
-        <v>1735.51527432049</v>
+        <v>4557.706839656456</v>
       </c>
       <c r="E10">
-        <v>2460.363637092589</v>
+        <v>6379.125923643453</v>
       </c>
       <c r="F10">
-        <v>3169.405279755726</v>
+        <v>8220.357343045685</v>
       </c>
       <c r="G10">
-        <v>3839.676563071812</v>
+        <v>10063.88606120417</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -878,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1005.77331105112</v>
+        <v>2767.951082759952</v>
       </c>
       <c r="D11">
-        <v>1734.469122403244</v>
+        <v>4556.400126585194</v>
       </c>
       <c r="E11">
-        <v>2461.997639967389</v>
+        <v>6378.151671976842</v>
       </c>
       <c r="F11">
-        <v>3184.09478734666</v>
+        <v>8224.025864925174</v>
       </c>
       <c r="G11">
-        <v>3887.437213210307</v>
+        <v>10084.10545322892</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -901,65 +861,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1005.074043227184</v>
+        <v>2767.251246066235</v>
       </c>
       <c r="D12">
-        <v>1733.144524941449</v>
+        <v>4555.01411141481</v>
       </c>
       <c r="E12">
-        <v>2461.013883718075</v>
+        <v>6376.28623857332</v>
       </c>
       <c r="F12">
-        <v>3187.976899662613</v>
+        <v>8222.950194860872</v>
       </c>
       <c r="G12">
-        <v>3907.618939989126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1004.374126485975</v>
-      </c>
-      <c r="D13">
-        <v>1731.759191820465</v>
-      </c>
-      <c r="E13">
-        <v>2459.219179458504</v>
-      </c>
-      <c r="F13">
-        <v>3187.51901936068</v>
-      </c>
-      <c r="G13">
-        <v>3914.188274539026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1003.674135179059</v>
-      </c>
-      <c r="D14">
-        <v>1730.361815143762</v>
-      </c>
-      <c r="E14">
-        <v>2457.196091193976</v>
-      </c>
-      <c r="F14">
-        <v>3185.476721802192</v>
-      </c>
-      <c r="G14">
-        <v>3914.649469236621</v>
+        <v>10088.29518066502</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_2.xlsx
+++ b/data/output/best_policy_2.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
         <v>0.9999999999999999</v>
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
         <v>0.9999999999999999</v>
@@ -455,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
         <v>0.9999999999999999</v>
@@ -475,13 +475,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
         <v>0.9999999999999999</v>
@@ -495,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
         <v>0.9999999999999999</v>
@@ -515,16 +515,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
         <v>0.9999999999999999</v>
@@ -535,19 +535,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F9">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -555,19 +555,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -575,19 +575,119 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0.6</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1809.574389246517</v>
+        <v>1654.960353521896</v>
       </c>
       <c r="D3">
-        <v>2344.971939623008</v>
+        <v>2301.839360546095</v>
       </c>
       <c r="E3">
-        <v>2643.35845836903</v>
+        <v>2641.988091523613</v>
       </c>
       <c r="F3">
-        <v>2807.283772019591</v>
+        <v>2818.030803522916</v>
       </c>
       <c r="G3">
-        <v>2896.393552471098</v>
+        <v>2908.058410959098</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -677,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2518.558998929723</v>
+        <v>2472.256423100302</v>
       </c>
       <c r="D4">
-        <v>3693.012577056907</v>
+        <v>3710.936336645163</v>
       </c>
       <c r="E4">
-        <v>4527.299551883267</v>
+        <v>4587.1738190704</v>
       </c>
       <c r="F4">
-        <v>5086.012534506178</v>
+        <v>5159.084921976744</v>
       </c>
       <c r="G4">
-        <v>5444.982493744985</v>
+        <v>5512.923485404548</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -700,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2718.776890248847</v>
+        <v>2875.136463885339</v>
       </c>
       <c r="D5">
-        <v>4282.240360315679</v>
+        <v>4469.511302110002</v>
       </c>
       <c r="E5">
-        <v>5602.175185808664</v>
+        <v>5813.118368919086</v>
       </c>
       <c r="F5">
-        <v>6638.778107703443</v>
+        <v>6853.471528448332</v>
       </c>
       <c r="G5">
-        <v>7407.769329661788</v>
+        <v>7605.823377260073</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -723,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2762.203953885465</v>
+        <v>3053.522152147847</v>
       </c>
       <c r="D6">
-        <v>4486.389136013648</v>
+        <v>4881.031525684076</v>
       </c>
       <c r="E6">
-        <v>6102.285732401537</v>
+        <v>6518.204757803374</v>
       </c>
       <c r="F6">
-        <v>7526.507111242821</v>
+        <v>7945.122030560827</v>
       </c>
       <c r="G6">
-        <v>8712.200920077536</v>
+        <v>9110.367776179466</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -746,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2769.391377489595</v>
+        <v>3111.001739507087</v>
       </c>
       <c r="D7">
-        <v>4543.9693598563</v>
+        <v>5133.526896271908</v>
       </c>
       <c r="E7">
-        <v>6296.134289172807</v>
+        <v>6930.281837878159</v>
       </c>
       <c r="F7">
-        <v>7957.248262767561</v>
+        <v>8604.755174054111</v>
       </c>
       <c r="G7">
-        <v>9461.557599331212</v>
+        <v>10098.69677494081</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -769,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2769.877840181175</v>
+        <v>3126.376256158647</v>
       </c>
       <c r="D8">
-        <v>4556.919526648152</v>
+        <v>5264.062341749889</v>
       </c>
       <c r="E8">
-        <v>6359.42587839756</v>
+        <v>7231.837415326664</v>
       </c>
       <c r="F8">
-        <v>8136.754106202925</v>
+        <v>9024.238884256318</v>
       </c>
       <c r="G8">
-        <v>9836.476649601304</v>
+        <v>10725.48946091723</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -792,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2769.331757729935</v>
+        <v>3130.343243061146</v>
       </c>
       <c r="D9">
-        <v>4558.544775030859</v>
+        <v>5318.899322176384</v>
       </c>
       <c r="E9">
-        <v>6376.337303564563</v>
+        <v>7401.056597408895</v>
       </c>
       <c r="F9">
-        <v>8201.156590095448</v>
+        <v>9343.110545521777</v>
       </c>
       <c r="G9">
-        <v>10000.89792311752</v>
+        <v>11147.72632518705</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -815,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2768.649300448807</v>
+        <v>3131.815119650542</v>
       </c>
       <c r="D10">
-        <v>4557.706839656456</v>
+        <v>5338.159255060308</v>
       </c>
       <c r="E10">
-        <v>6379.125923643453</v>
+        <v>7497.528154038206</v>
       </c>
       <c r="F10">
-        <v>8220.357343045685</v>
+        <v>9542.694941343858</v>
       </c>
       <c r="G10">
-        <v>10063.88606120417</v>
+        <v>11472.82532960127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -838,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2767.951082759952</v>
+        <v>3131.60606757929</v>
       </c>
       <c r="D11">
-        <v>4556.400126585194</v>
+        <v>5343.911510199572</v>
       </c>
       <c r="E11">
-        <v>6378.151671976842</v>
+        <v>7541.195835553614</v>
       </c>
       <c r="F11">
-        <v>8224.025864925174</v>
+        <v>9669.905371474893</v>
       </c>
       <c r="G11">
-        <v>10084.10545322892</v>
+        <v>11697.50012318204</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -861,19 +961,134 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2767.251246066235</v>
+        <v>3131.006471619218</v>
       </c>
       <c r="D12">
-        <v>4555.01411141481</v>
+        <v>5344.876411400847</v>
       </c>
       <c r="E12">
-        <v>6376.28623857332</v>
+        <v>7558.493401261339</v>
       </c>
       <c r="F12">
-        <v>8222.950194860872</v>
+        <v>9740.061677297914</v>
       </c>
       <c r="G12">
-        <v>10088.29518066502</v>
+        <v>11843.74982024755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3130.325211231976</v>
+      </c>
+      <c r="D13">
+        <v>5344.216083180989</v>
+      </c>
+      <c r="E13">
+        <v>7563.979425430184</v>
+      </c>
+      <c r="F13">
+        <v>9773.667916695933</v>
+      </c>
+      <c r="G13">
+        <v>11938.58778969048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3129.628426856367</v>
+      </c>
+      <c r="D14">
+        <v>5343.031317693935</v>
+      </c>
+      <c r="E14">
+        <v>7564.649169825151</v>
+      </c>
+      <c r="F14">
+        <v>9787.590728844671</v>
+      </c>
+      <c r="G14">
+        <v>11990.46776887523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3128.928937369476</v>
+      </c>
+      <c r="D15">
+        <v>5341.688983760244</v>
+      </c>
+      <c r="E15">
+        <v>7563.501202647241</v>
+      </c>
+      <c r="F15">
+        <v>9791.915875628523</v>
+      </c>
+      <c r="G15">
+        <v>12015.83777008094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3128.229012766778</v>
+      </c>
+      <c r="D16">
+        <v>5340.303181343867</v>
+      </c>
+      <c r="E16">
+        <v>7561.71051255931</v>
+      </c>
+      <c r="F16">
+        <v>9791.955173345439</v>
+      </c>
+      <c r="G16">
+        <v>12026.32329317038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3127.529023175077</v>
+      </c>
+      <c r="D17">
+        <v>5338.906404969488</v>
+      </c>
+      <c r="E17">
+        <v>7559.705573403615</v>
+      </c>
+      <c r="F17">
+        <v>9790.220812076554</v>
+      </c>
+      <c r="G17">
+        <v>12029.15687600125</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_2.xlsx
+++ b/data/output/best_policy_2.xlsx
@@ -367,13 +367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -389,8 +389,20 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -409,13 +421,25 @@
       <c r="F2">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="C3">
         <v>0.9999999999999999</v>
@@ -429,13 +453,25 @@
       <c r="F3">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
         <v>0.9999999999999999</v>
@@ -449,16 +485,28 @@
       <c r="F4">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D5">
         <v>0.9999999999999999</v>
@@ -469,19 +517,31 @@
       <c r="F5">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E6">
         <v>0.9999999999999999</v>
@@ -489,205 +549,113 @@
       <c r="F6">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F7">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.6</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.6</v>
-      </c>
-      <c r="D11">
-        <v>0.6</v>
-      </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0.6</v>
-      </c>
-      <c r="D12">
-        <v>0.6</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>0.6</v>
-      </c>
-      <c r="E13">
-        <v>0.6</v>
-      </c>
-      <c r="F13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14">
-        <v>0.6</v>
-      </c>
-      <c r="D14">
-        <v>0.6</v>
-      </c>
-      <c r="E14">
-        <v>0.6</v>
-      </c>
-      <c r="F14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.6</v>
-      </c>
-      <c r="D15">
-        <v>0.6</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>0.6</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>0.6</v>
-      </c>
-      <c r="F16">
-        <v>0.6</v>
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +665,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -722,8 +690,20 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -745,8 +725,20 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -754,22 +746,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1654.960353521896</v>
+        <v>1694.160680261987</v>
       </c>
       <c r="D3">
-        <v>2301.839360546095</v>
+        <v>2326.735385860782</v>
       </c>
       <c r="E3">
-        <v>2641.988091523613</v>
+        <v>2656.853972649786</v>
       </c>
       <c r="F3">
-        <v>2818.030803522916</v>
+        <v>2826.447220279086</v>
       </c>
       <c r="G3">
-        <v>2908.058410959098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2912.736845142961</v>
+      </c>
+      <c r="H3">
+        <v>2956.259482470446</v>
+      </c>
+      <c r="I3">
+        <v>2978.045074018677</v>
+      </c>
+      <c r="J3">
+        <v>2988.87736020182</v>
+      </c>
+      <c r="K3">
+        <v>2994.230458916441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -777,22 +781,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2472.256423100302</v>
+        <v>2340.145283452736</v>
       </c>
       <c r="D4">
-        <v>3710.936336645163</v>
+        <v>3666.968114027487</v>
       </c>
       <c r="E4">
-        <v>4587.1738190704</v>
+        <v>4579.803638622825</v>
       </c>
       <c r="F4">
-        <v>5159.084921976744</v>
+        <v>5163.80356426865</v>
       </c>
       <c r="G4">
-        <v>5512.923485404548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5520.195044108455</v>
+      </c>
+      <c r="H4">
+        <v>5730.157232655461</v>
+      </c>
+      <c r="I4">
+        <v>5850.516338071203</v>
+      </c>
+      <c r="J4">
+        <v>5918.00972172866</v>
+      </c>
+      <c r="K4">
+        <v>5955.165683246522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -800,22 +816,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2875.136463885339</v>
+        <v>2606.082809355423</v>
       </c>
       <c r="D5">
-        <v>4469.511302110002</v>
+        <v>4305.283701366729</v>
       </c>
       <c r="E5">
-        <v>5813.118368919086</v>
+        <v>5728.152115394805</v>
       </c>
       <c r="F5">
-        <v>6853.471528448332</v>
+        <v>6816.355145319163</v>
       </c>
       <c r="G5">
-        <v>7605.823377260073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>7594.457336306838</v>
+      </c>
+      <c r="H5">
+        <v>8122.187376043384</v>
+      </c>
+      <c r="I5">
+        <v>8465.345860566817</v>
+      </c>
+      <c r="J5">
+        <v>8680.962764517844</v>
+      </c>
+      <c r="K5">
+        <v>8812.602084170954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -823,22 +851,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3053.522152147847</v>
+        <v>2695.436218527841</v>
       </c>
       <c r="D6">
-        <v>4881.031525684076</v>
+        <v>4599.404301907441</v>
       </c>
       <c r="E6">
-        <v>6518.204757803374</v>
+        <v>6327.995443284841</v>
       </c>
       <c r="F6">
-        <v>7945.122030560827</v>
+        <v>7828.915898758506</v>
       </c>
       <c r="G6">
-        <v>9110.367776179466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>9047.668827738944</v>
+      </c>
+      <c r="H6">
+        <v>9980.624488598767</v>
+      </c>
+      <c r="I6">
+        <v>10659.85129887129</v>
+      </c>
+      <c r="J6">
+        <v>11133.78537725516</v>
+      </c>
+      <c r="K6">
+        <v>11452.65328629685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -846,22 +886,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3111.001739507087</v>
+        <v>2716.981096800135</v>
       </c>
       <c r="D7">
-        <v>5133.526896271908</v>
+        <v>4733.084937484687</v>
       </c>
       <c r="E7">
-        <v>6930.281837878159</v>
+        <v>6640.358623903503</v>
       </c>
       <c r="F7">
-        <v>8604.755174054111</v>
+        <v>8394.39184043113</v>
       </c>
       <c r="G7">
-        <v>10098.69677494081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9958.992558722575</v>
+      </c>
+      <c r="H7">
+        <v>11280.07653454148</v>
+      </c>
+      <c r="I7">
+        <v>12339.91857308237</v>
+      </c>
+      <c r="J7">
+        <v>13151.99877815341</v>
+      </c>
+      <c r="K7">
+        <v>13749.30433751086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -869,22 +921,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3126.376256158647</v>
+        <v>2720.926674952338</v>
       </c>
       <c r="D8">
-        <v>5264.062341749889</v>
+        <v>4778.002354012133</v>
       </c>
       <c r="E8">
-        <v>7231.837415326664</v>
+        <v>6803.425298254624</v>
       </c>
       <c r="F8">
-        <v>9024.238884256318</v>
+        <v>8714.643016766451</v>
       </c>
       <c r="G8">
-        <v>10725.48946091723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>10494.67240549575</v>
+      </c>
+      <c r="H8">
+        <v>12112.47516145113</v>
+      </c>
+      <c r="I8">
+        <v>13516.98878617444</v>
+      </c>
+      <c r="J8">
+        <v>14683.2076005116</v>
+      </c>
+      <c r="K8">
+        <v>15611.86242358725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -892,22 +956,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3130.343243061146</v>
+        <v>2721.065758545453</v>
       </c>
       <c r="D9">
-        <v>5318.899322176384</v>
+        <v>4790.478977450989</v>
       </c>
       <c r="E9">
-        <v>7401.056597408895</v>
+        <v>6869.477420841895</v>
       </c>
       <c r="F9">
-        <v>9343.110545521777</v>
+        <v>8897.412679158269</v>
       </c>
       <c r="G9">
-        <v>11147.72632518705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>10816.23035042444</v>
+      </c>
+      <c r="H9">
+        <v>12621.73504060259</v>
+      </c>
+      <c r="I9">
+        <v>14285.56871488036</v>
+      </c>
+      <c r="J9">
+        <v>15760.46162668438</v>
+      </c>
+      <c r="K9">
+        <v>17017.54420809721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -915,180 +991,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3131.815119650542</v>
+        <v>2720.499161438794</v>
       </c>
       <c r="D10">
-        <v>5338.159255060308</v>
+        <v>4792.746042367913</v>
       </c>
       <c r="E10">
-        <v>7497.528154038206</v>
+        <v>6892.479473972464</v>
       </c>
       <c r="F10">
-        <v>9542.694941343858</v>
+        <v>8981.260641791132</v>
       </c>
       <c r="G10">
-        <v>11472.82532960127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>3131.60606757929</v>
-      </c>
-      <c r="D11">
-        <v>5343.911510199572</v>
-      </c>
-      <c r="E11">
-        <v>7541.195835553614</v>
-      </c>
-      <c r="F11">
-        <v>9669.905371474893</v>
-      </c>
-      <c r="G11">
-        <v>11697.50012318204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3131.006471619218</v>
-      </c>
-      <c r="D12">
-        <v>5344.876411400847</v>
-      </c>
-      <c r="E12">
-        <v>7558.493401261339</v>
-      </c>
-      <c r="F12">
-        <v>9740.061677297914</v>
-      </c>
-      <c r="G12">
-        <v>11843.74982024755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>3130.325211231976</v>
-      </c>
-      <c r="D13">
-        <v>5344.216083180989</v>
-      </c>
-      <c r="E13">
-        <v>7563.979425430184</v>
-      </c>
-      <c r="F13">
-        <v>9773.667916695933</v>
-      </c>
-      <c r="G13">
-        <v>11938.58778969048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>3129.628426856367</v>
-      </c>
-      <c r="D14">
-        <v>5343.031317693935</v>
-      </c>
-      <c r="E14">
-        <v>7564.649169825151</v>
-      </c>
-      <c r="F14">
-        <v>9787.590728844671</v>
-      </c>
-      <c r="G14">
-        <v>11990.46776887523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>3128.928937369476</v>
-      </c>
-      <c r="D15">
-        <v>5341.688983760244</v>
-      </c>
-      <c r="E15">
-        <v>7563.501202647241</v>
-      </c>
-      <c r="F15">
-        <v>9791.915875628523</v>
-      </c>
-      <c r="G15">
-        <v>12015.83777008094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3128.229012766778</v>
-      </c>
-      <c r="D16">
-        <v>5340.303181343867</v>
-      </c>
-      <c r="E16">
-        <v>7561.71051255931</v>
-      </c>
-      <c r="F16">
-        <v>9791.955173345439</v>
-      </c>
-      <c r="G16">
-        <v>12026.32329317038</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>3127.529023175077</v>
-      </c>
-      <c r="D17">
-        <v>5338.906404969488</v>
-      </c>
-      <c r="E17">
-        <v>7559.705573403615</v>
-      </c>
-      <c r="F17">
-        <v>9790.220812076554</v>
-      </c>
-      <c r="G17">
-        <v>12029.15687600125</v>
+        <v>11012.41987262176</v>
+      </c>
+      <c r="H10">
+        <v>12941.03514600066</v>
+      </c>
+      <c r="I10">
+        <v>14771.21948254954</v>
+      </c>
+      <c r="J10">
+        <v>16476.0897530676</v>
+      </c>
+      <c r="K10">
+        <v>18011.79696790654</v>
       </c>
     </row>
   </sheetData>
